--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44636</v>
+        <v>44650</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,31 +604,191 @@
         </is>
       </c>
       <c r="M3" t="n">
+        <v>160</v>
+      </c>
+      <c r="N3" t="n">
+        <v>31000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>32000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>31500</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v>1575</v>
+      </c>
+      <c r="T3" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="E4" t="n">
+        <v>15</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>250</v>
+      </c>
+      <c r="N4" t="n">
+        <v>29000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>30000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>29500</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v>1475</v>
+      </c>
+      <c r="T4" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="E5" t="n">
+        <v>15</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>200</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N5" t="n">
         <v>29000</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O5" t="n">
         <v>30000</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P5" t="n">
         <v>29500</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>$/caja 20 kilos</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>Región de Coquimbo</t>
         </is>
       </c>
-      <c r="S3" t="n">
+      <c r="S5" t="n">
         <v>1475</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T5" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44650</v>
+        <v>44636</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>31000</v>
+        <v>29000</v>
       </c>
       <c r="O3" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P3" t="n">
-        <v>31500</v>
+        <v>29500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1575</v>
+        <v>1475</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="N4" t="n">
-        <v>29000</v>
+        <v>31000</v>
       </c>
       <c r="O4" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P4" t="n">
-        <v>29500</v>
+        <v>31500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1475</v>
+        <v>1575</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44636</v>
+        <v>44650</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -760,11 +760,11 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N5" t="n">
         <v>29000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44643</v>
+        <v>44636</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="O2" t="n">
         <v>30000</v>
       </c>
       <c r="P2" t="n">
-        <v>29000</v>
+        <v>29500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1450</v>
+        <v>1475</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44636</v>
+        <v>44643</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N3" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="O3" t="n">
         <v>30000</v>
       </c>
       <c r="P3" t="n">
-        <v>29500</v>
+        <v>29000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1475</v>
+        <v>1450</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44643</v>
+        <v>44664</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,24 +600,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N3" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="O3" t="n">
         <v>30000</v>
       </c>
       <c r="P3" t="n">
-        <v>29000</v>
+        <v>29500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1450</v>
+        <v>1639</v>
       </c>
       <c r="T3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44650</v>
+        <v>44643</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -687,13 +687,13 @@
         <v>160</v>
       </c>
       <c r="N4" t="n">
-        <v>31000</v>
+        <v>28000</v>
       </c>
       <c r="O4" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P4" t="n">
-        <v>31500</v>
+        <v>29000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1575</v>
+        <v>1450</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -760,35 +760,115 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>160</v>
+      </c>
+      <c r="N5" t="n">
+        <v>31000</v>
+      </c>
+      <c r="O5" t="n">
+        <v>32000</v>
+      </c>
+      <c r="P5" t="n">
+        <v>31500</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v>1575</v>
+      </c>
+      <c r="T5" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="E6" t="n">
+        <v>15</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="M6" t="n">
         <v>250</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N6" t="n">
         <v>29000</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O6" t="n">
         <v>30000</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P6" t="n">
         <v>29500</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>$/caja 20 kilos</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>Región de Coquimbo</t>
         </is>
       </c>
-      <c r="S5" t="n">
+      <c r="S6" t="n">
         <v>1475</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T6" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44664</v>
+        <v>44671</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
         <v>29000</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1639</v>
+        <v>1475</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44643</v>
+        <v>44664</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,24 +680,24 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="O4" t="n">
         <v>30000</v>
       </c>
       <c r="P4" t="n">
-        <v>29000</v>
+        <v>29500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1450</v>
+        <v>1639</v>
       </c>
       <c r="T4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44650</v>
+        <v>44643</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -767,13 +767,13 @@
         <v>160</v>
       </c>
       <c r="N5" t="n">
-        <v>31000</v>
+        <v>28000</v>
       </c>
       <c r="O5" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P5" t="n">
-        <v>31500</v>
+        <v>29000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1575</v>
+        <v>1450</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -840,35 +840,115 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>160</v>
+      </c>
+      <c r="N6" t="n">
+        <v>31000</v>
+      </c>
+      <c r="O6" t="n">
+        <v>32000</v>
+      </c>
+      <c r="P6" t="n">
+        <v>31500</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>1575</v>
+      </c>
+      <c r="T6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="E7" t="n">
+        <v>15</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="M7" t="n">
         <v>250</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N7" t="n">
         <v>29000</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O7" t="n">
         <v>30000</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P7" t="n">
         <v>29500</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>$/caja 20 kilos</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>Región de Coquimbo</t>
         </is>
       </c>
-      <c r="S6" t="n">
+      <c r="S7" t="n">
         <v>1475</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T7" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44636</v>
+        <v>44671</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,7 +520,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44671</v>
+        <v>44636</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,7 +600,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44664</v>
+        <v>44679</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
         <v>29000</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1639</v>
+        <v>1475</v>
       </c>
       <c r="T4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44643</v>
+        <v>44679</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="O5" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P5" t="n">
-        <v>29000</v>
+        <v>24500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1450</v>
+        <v>1225</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44650</v>
+        <v>44664</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -840,24 +840,24 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N6" t="n">
-        <v>31000</v>
+        <v>29000</v>
       </c>
       <c r="O6" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P6" t="n">
-        <v>31500</v>
+        <v>29500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1575</v>
+        <v>1639</v>
       </c>
       <c r="T6" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44650</v>
+        <v>44643</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -920,35 +920,195 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="N7" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="O7" t="n">
         <v>30000</v>
       </c>
       <c r="P7" t="n">
+        <v>29000</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v>1450</v>
+      </c>
+      <c r="T7" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="E8" t="n">
+        <v>15</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>160</v>
+      </c>
+      <c r="N8" t="n">
+        <v>31000</v>
+      </c>
+      <c r="O8" t="n">
+        <v>32000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>31500</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v>1575</v>
+      </c>
+      <c r="T8" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="E9" t="n">
+        <v>15</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>250</v>
+      </c>
+      <c r="N9" t="n">
+        <v>29000</v>
+      </c>
+      <c r="O9" t="n">
+        <v>30000</v>
+      </c>
+      <c r="P9" t="n">
         <v>29500</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>$/caja 20 kilos</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>Región de Coquimbo</t>
         </is>
       </c>
-      <c r="S7" t="n">
+      <c r="S9" t="n">
         <v>1475</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T9" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44671</v>
+        <v>44650</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N2" t="n">
-        <v>29000</v>
+        <v>31000</v>
       </c>
       <c r="O2" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P2" t="n">
-        <v>29500</v>
+        <v>31500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1475</v>
+        <v>1575</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44636</v>
+        <v>44650</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,11 +600,11 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N3" t="n">
         <v>29000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44679</v>
+        <v>44664</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N4" t="n">
         <v>29000</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1475</v>
+        <v>1639</v>
       </c>
       <c r="T4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44679</v>
+        <v>44636</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="O5" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P5" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1225</v>
+        <v>1475</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44664</v>
+        <v>44679</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
         <v>29000</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1639</v>
+        <v>1475</v>
       </c>
       <c r="T6" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44643</v>
+        <v>44679</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="O7" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P7" t="n">
-        <v>29000</v>
+        <v>24500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1450</v>
+        <v>1225</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44650</v>
+        <v>44643</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1007,13 +1007,13 @@
         <v>160</v>
       </c>
       <c r="N8" t="n">
-        <v>31000</v>
+        <v>28000</v>
       </c>
       <c r="O8" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P8" t="n">
-        <v>31500</v>
+        <v>29000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1575</v>
+        <v>1450</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44650</v>
+        <v>44671</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
         <v>29000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44650</v>
+        <v>44636</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>31000</v>
+        <v>29000</v>
       </c>
       <c r="O2" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P2" t="n">
-        <v>31500</v>
+        <v>29500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1575</v>
+        <v>1475</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44650</v>
+        <v>44643</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="N3" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="O3" t="n">
         <v>30000</v>
       </c>
       <c r="P3" t="n">
-        <v>29500</v>
+        <v>29000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1475</v>
+        <v>1450</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44664</v>
+        <v>44650</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,24 +680,24 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="N4" t="n">
-        <v>29000</v>
+        <v>31000</v>
       </c>
       <c r="O4" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P4" t="n">
-        <v>29500</v>
+        <v>31500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1639</v>
+        <v>1575</v>
       </c>
       <c r="T4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44636</v>
+        <v>44650</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -760,11 +760,11 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N5" t="n">
         <v>29000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44679</v>
+        <v>44671</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="O7" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P7" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1225</v>
+        <v>1475</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44643</v>
+        <v>44679</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="O8" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P8" t="n">
-        <v>29000</v>
+        <v>24500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1450</v>
+        <v>1225</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44671</v>
+        <v>44664</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N9" t="n">
         <v>29000</v>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1475</v>
+        <v>1639</v>
       </c>
       <c r="T9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44636</v>
+        <v>44643</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N2" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="O2" t="n">
         <v>30000</v>
       </c>
       <c r="P2" t="n">
-        <v>29500</v>
+        <v>29000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1475</v>
+        <v>1450</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44643</v>
+        <v>44650</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -607,13 +607,13 @@
         <v>160</v>
       </c>
       <c r="N3" t="n">
-        <v>28000</v>
+        <v>31000</v>
       </c>
       <c r="O3" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P3" t="n">
-        <v>29000</v>
+        <v>31500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1450</v>
+        <v>1575</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="N4" t="n">
-        <v>31000</v>
+        <v>29000</v>
       </c>
       <c r="O4" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P4" t="n">
-        <v>31500</v>
+        <v>29500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1575</v>
+        <v>1475</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44650</v>
+        <v>44671</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
         <v>29000</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44671</v>
+        <v>44636</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -840,7 +840,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44643</v>
+        <v>44679</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="O2" t="n">
         <v>30000</v>
       </c>
       <c r="P2" t="n">
-        <v>29000</v>
+        <v>29500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1450</v>
+        <v>1475</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44650</v>
+        <v>44679</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>31000</v>
+        <v>24000</v>
       </c>
       <c r="O3" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="P3" t="n">
-        <v>31500</v>
+        <v>24500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1575</v>
+        <v>1225</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44650</v>
+        <v>44636</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,11 +680,11 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
         <v>29000</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44671</v>
+        <v>44643</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N5" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="O5" t="n">
         <v>30000</v>
       </c>
       <c r="P5" t="n">
-        <v>29500</v>
+        <v>29000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1475</v>
+        <v>1450</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44636</v>
+        <v>44650</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N6" t="n">
-        <v>29000</v>
+        <v>31000</v>
       </c>
       <c r="O6" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P6" t="n">
-        <v>29500</v>
+        <v>31500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1475</v>
+        <v>1575</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44679</v>
+        <v>44650</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N7" t="n">
         <v>29000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44679</v>
+        <v>44671</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="O8" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P8" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1225</v>
+        <v>1475</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44679</v>
+        <v>44664</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N2" t="n">
         <v>29000</v>
@@ -537,7 +537,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1475</v>
+        <v>1639</v>
       </c>
       <c r="T2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44679</v>
+        <v>44671</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="O3" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P3" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1225</v>
+        <v>1475</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44636</v>
+        <v>44643</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N4" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="O4" t="n">
         <v>30000</v>
       </c>
       <c r="P4" t="n">
-        <v>29500</v>
+        <v>29000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1475</v>
+        <v>1450</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44643</v>
+        <v>44679</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="O5" t="n">
         <v>30000</v>
       </c>
       <c r="P5" t="n">
-        <v>29000</v>
+        <v>29500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1450</v>
+        <v>1475</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44650</v>
+        <v>44679</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>31000</v>
+        <v>24000</v>
       </c>
       <c r="O6" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="P6" t="n">
-        <v>31500</v>
+        <v>24500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1575</v>
+        <v>1225</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="N7" t="n">
-        <v>29000</v>
+        <v>31000</v>
       </c>
       <c r="O7" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P7" t="n">
-        <v>29500</v>
+        <v>31500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1475</v>
+        <v>1575</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44671</v>
+        <v>44650</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N8" t="n">
         <v>29000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44664</v>
+        <v>44636</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1080,11 +1080,11 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
         <v>29000</v>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1639</v>
+        <v>1475</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44664</v>
+        <v>44650</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,24 +520,24 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="N2" t="n">
-        <v>29000</v>
+        <v>31000</v>
       </c>
       <c r="O2" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P2" t="n">
-        <v>29500</v>
+        <v>31500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1639</v>
+        <v>1575</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44671</v>
+        <v>44650</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N3" t="n">
         <v>29000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44643</v>
+        <v>44636</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="O4" t="n">
         <v>30000</v>
       </c>
       <c r="P4" t="n">
-        <v>29000</v>
+        <v>29500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1450</v>
+        <v>1475</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44679</v>
+        <v>44643</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N5" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="O5" t="n">
         <v>30000</v>
       </c>
       <c r="P5" t="n">
-        <v>29500</v>
+        <v>29000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1475</v>
+        <v>1450</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44679</v>
+        <v>44671</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="O6" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P6" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1225</v>
+        <v>1475</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44650</v>
+        <v>44679</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>31000</v>
+        <v>29000</v>
       </c>
       <c r="O7" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P7" t="n">
-        <v>31500</v>
+        <v>29500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1575</v>
+        <v>1475</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44650</v>
+        <v>44679</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="O8" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P8" t="n">
-        <v>29500</v>
+        <v>24500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1475</v>
+        <v>1225</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44636</v>
+        <v>44664</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1080,11 +1080,11 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N9" t="n">
         <v>29000</v>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1475</v>
+        <v>1639</v>
       </c>
       <c r="T9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44636</v>
+        <v>44671</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,7 +680,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44643</v>
+        <v>44679</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="O5" t="n">
         <v>30000</v>
       </c>
       <c r="P5" t="n">
-        <v>29000</v>
+        <v>29500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1450</v>
+        <v>1475</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44671</v>
+        <v>44679</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="O6" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P6" t="n">
-        <v>29500</v>
+        <v>24500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1475</v>
+        <v>1225</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44679</v>
+        <v>44636</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -920,7 +920,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44679</v>
+        <v>44664</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1000,24 +1000,24 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N8" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="O8" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P8" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1225</v>
+        <v>1639</v>
       </c>
       <c r="T8" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44664</v>
+        <v>44643</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1080,24 +1080,24 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="N9" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="O9" t="n">
         <v>30000</v>
       </c>
       <c r="P9" t="n">
-        <v>29500</v>
+        <v>29000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1639</v>
+        <v>1450</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44650</v>
+        <v>44679</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>31000</v>
+        <v>29000</v>
       </c>
       <c r="O2" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P2" t="n">
-        <v>31500</v>
+        <v>29500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1575</v>
+        <v>1475</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44650</v>
+        <v>44679</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="O3" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P3" t="n">
-        <v>29500</v>
+        <v>24500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1475</v>
+        <v>1225</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44671</v>
+        <v>44643</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N4" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="O4" t="n">
         <v>30000</v>
       </c>
       <c r="P4" t="n">
-        <v>29500</v>
+        <v>29000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1475</v>
+        <v>1450</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44679</v>
+        <v>44664</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N5" t="n">
         <v>29000</v>
@@ -777,7 +777,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1475</v>
+        <v>1639</v>
       </c>
       <c r="T5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44679</v>
+        <v>44650</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N6" t="n">
-        <v>24000</v>
+        <v>31000</v>
       </c>
       <c r="O6" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="P6" t="n">
-        <v>24500</v>
+        <v>31500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1225</v>
+        <v>1575</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44636</v>
+        <v>44650</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -920,11 +920,11 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N7" t="n">
         <v>29000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44664</v>
+        <v>44671</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
         <v>29000</v>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1639</v>
+        <v>1475</v>
       </c>
       <c r="T8" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44643</v>
+        <v>44636</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="O9" t="n">
         <v>30000</v>
       </c>
       <c r="P9" t="n">
-        <v>29000</v>
+        <v>29500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1450</v>
+        <v>1475</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44679</v>
+        <v>44643</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N2" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="O2" t="n">
         <v>30000</v>
       </c>
       <c r="P2" t="n">
-        <v>29500</v>
+        <v>29000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1475</v>
+        <v>1450</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44679</v>
+        <v>44671</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="O3" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P3" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1225</v>
+        <v>1475</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44643</v>
+        <v>44664</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,24 +680,24 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="O4" t="n">
         <v>30000</v>
       </c>
       <c r="P4" t="n">
-        <v>29000</v>
+        <v>29500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1450</v>
+        <v>1639</v>
       </c>
       <c r="T4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44664</v>
+        <v>44650</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -760,24 +760,24 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="N5" t="n">
-        <v>29000</v>
+        <v>31000</v>
       </c>
       <c r="O5" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P5" t="n">
-        <v>29500</v>
+        <v>31500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1639</v>
+        <v>1575</v>
       </c>
       <c r="T5" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="N6" t="n">
-        <v>31000</v>
+        <v>29000</v>
       </c>
       <c r="O6" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P6" t="n">
-        <v>31500</v>
+        <v>29500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1575</v>
+        <v>1475</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44650</v>
+        <v>44636</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -920,11 +920,11 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
         <v>29000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44671</v>
+        <v>44679</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44636</v>
+        <v>44679</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="O9" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P9" t="n">
-        <v>29500</v>
+        <v>24500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1475</v>
+        <v>1225</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44643</v>
+        <v>44671</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="O2" t="n">
         <v>30000</v>
       </c>
       <c r="P2" t="n">
-        <v>29000</v>
+        <v>29500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1450</v>
+        <v>1475</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44671</v>
+        <v>44679</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44664</v>
+        <v>44679</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,24 +680,24 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="O4" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>29500</v>
+        <v>24500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1639</v>
+        <v>1225</v>
       </c>
       <c r="T4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44650</v>
+        <v>44664</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -760,24 +760,24 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N5" t="n">
-        <v>31000</v>
+        <v>29000</v>
       </c>
       <c r="O5" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P5" t="n">
-        <v>31500</v>
+        <v>29500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1575</v>
+        <v>1639</v>
       </c>
       <c r="T5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44650</v>
+        <v>44636</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -840,11 +840,11 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
         <v>29000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44636</v>
+        <v>44643</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N7" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="O7" t="n">
         <v>30000</v>
       </c>
       <c r="P7" t="n">
-        <v>29500</v>
+        <v>29000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1475</v>
+        <v>1450</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44679</v>
+        <v>44650</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N8" t="n">
-        <v>29000</v>
+        <v>31000</v>
       </c>
       <c r="O8" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P8" t="n">
-        <v>29500</v>
+        <v>31500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1475</v>
+        <v>1575</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44679</v>
+        <v>44650</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N9" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="O9" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P9" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1225</v>
+        <v>1475</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44671</v>
+        <v>44643</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N2" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="O2" t="n">
         <v>30000</v>
       </c>
       <c r="P2" t="n">
-        <v>29500</v>
+        <v>29000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1475</v>
+        <v>1450</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44679</v>
+        <v>44664</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N3" t="n">
         <v>29000</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1475</v>
+        <v>1639</v>
       </c>
       <c r="T3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44679</v>
+        <v>44671</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="O4" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P4" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1225</v>
+        <v>1475</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44664</v>
+        <v>44679</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
         <v>29000</v>
@@ -777,7 +777,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1639</v>
+        <v>1475</v>
       </c>
       <c r="T5" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44636</v>
+        <v>44679</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="O6" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P6" t="n">
-        <v>29500</v>
+        <v>24500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1475</v>
+        <v>1225</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44643</v>
+        <v>44650</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -927,13 +927,13 @@
         <v>160</v>
       </c>
       <c r="N7" t="n">
-        <v>28000</v>
+        <v>31000</v>
       </c>
       <c r="O7" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P7" t="n">
-        <v>29000</v>
+        <v>31500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1450</v>
+        <v>1575</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="N8" t="n">
-        <v>31000</v>
+        <v>29000</v>
       </c>
       <c r="O8" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P8" t="n">
-        <v>31500</v>
+        <v>29500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1575</v>
+        <v>1475</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44650</v>
+        <v>44636</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1080,11 +1080,11 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
         <v>29000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44643</v>
+        <v>44679</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="O2" t="n">
         <v>30000</v>
       </c>
       <c r="P2" t="n">
-        <v>29000</v>
+        <v>29500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1450</v>
+        <v>1475</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44664</v>
+        <v>44679</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,24 +600,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="O3" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P3" t="n">
-        <v>29500</v>
+        <v>24500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1639</v>
+        <v>1225</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44671</v>
+        <v>44636</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,7 +680,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44679</v>
+        <v>44671</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44679</v>
+        <v>44643</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N6" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="O6" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P6" t="n">
-        <v>24500</v>
+        <v>29000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1225</v>
+        <v>1450</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44650</v>
+        <v>44664</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -920,24 +920,24 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N7" t="n">
-        <v>31000</v>
+        <v>29000</v>
       </c>
       <c r="O7" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P7" t="n">
-        <v>31500</v>
+        <v>29500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1575</v>
+        <v>1639</v>
       </c>
       <c r="T7" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="N8" t="n">
-        <v>29000</v>
+        <v>31000</v>
       </c>
       <c r="O8" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P8" t="n">
-        <v>29500</v>
+        <v>31500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1475</v>
+        <v>1575</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44636</v>
+        <v>44650</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1080,11 +1080,11 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N9" t="n">
         <v>29000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44679</v>
+        <v>44643</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N2" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="O2" t="n">
         <v>30000</v>
       </c>
       <c r="P2" t="n">
-        <v>29500</v>
+        <v>29000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1475</v>
+        <v>1450</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44679</v>
+        <v>44664</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,24 +600,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N3" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="O3" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P3" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1225</v>
+        <v>1639</v>
       </c>
       <c r="T3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44643</v>
+        <v>44679</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="O6" t="n">
         <v>30000</v>
       </c>
       <c r="P6" t="n">
-        <v>29000</v>
+        <v>29500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1450</v>
+        <v>1475</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44664</v>
+        <v>44679</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -920,24 +920,24 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="O7" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P7" t="n">
-        <v>29500</v>
+        <v>24500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1639</v>
+        <v>1225</v>
       </c>
       <c r="T7" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44643</v>
+        <v>44650</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -527,13 +527,13 @@
         <v>160</v>
       </c>
       <c r="N2" t="n">
-        <v>28000</v>
+        <v>31000</v>
       </c>
       <c r="O2" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P2" t="n">
-        <v>29000</v>
+        <v>31500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1450</v>
+        <v>1575</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44664</v>
+        <v>44650</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N3" t="n">
         <v>29000</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1639</v>
+        <v>1475</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44636</v>
+        <v>44679</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,7 +680,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44671</v>
+        <v>44679</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="O5" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P5" t="n">
-        <v>29500</v>
+        <v>24500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1475</v>
+        <v>1225</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44679</v>
+        <v>44636</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -840,7 +840,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44679</v>
+        <v>44664</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -920,24 +920,24 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N7" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="O7" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P7" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1225</v>
+        <v>1639</v>
       </c>
       <c r="T7" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44650</v>
+        <v>44643</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1007,13 +1007,13 @@
         <v>160</v>
       </c>
       <c r="N8" t="n">
-        <v>31000</v>
+        <v>28000</v>
       </c>
       <c r="O8" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P8" t="n">
-        <v>31500</v>
+        <v>29000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1575</v>
+        <v>1450</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44650</v>
+        <v>44671</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
         <v>29000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44650</v>
+        <v>44643</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -527,13 +527,13 @@
         <v>160</v>
       </c>
       <c r="N2" t="n">
-        <v>31000</v>
+        <v>28000</v>
       </c>
       <c r="O2" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P2" t="n">
-        <v>31500</v>
+        <v>29000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1575</v>
+        <v>1450</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44650</v>
+        <v>44664</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N3" t="n">
         <v>29000</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1475</v>
+        <v>1639</v>
       </c>
       <c r="T3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44679</v>
+        <v>44636</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,7 +680,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44679</v>
+        <v>44671</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
         <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="O5" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P5" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1225</v>
+        <v>1475</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44636</v>
+        <v>44679</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -840,7 +840,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44664</v>
+        <v>44679</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -920,24 +920,24 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="O7" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P7" t="n">
-        <v>29500</v>
+        <v>24500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1639</v>
+        <v>1225</v>
       </c>
       <c r="T7" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44643</v>
+        <v>44650</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1007,13 +1007,13 @@
         <v>160</v>
       </c>
       <c r="N8" t="n">
-        <v>28000</v>
+        <v>31000</v>
       </c>
       <c r="O8" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P8" t="n">
-        <v>29000</v>
+        <v>31500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1450</v>
+        <v>1575</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44671</v>
+        <v>44650</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N9" t="n">
         <v>29000</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44650</v>
+        <v>44664</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,24 +520,24 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N2" t="n">
-        <v>31000</v>
+        <v>29000</v>
       </c>
       <c r="O2" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P2" t="n">
-        <v>31500</v>
+        <v>29500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1575</v>
+        <v>1639</v>
       </c>
       <c r="T2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44650</v>
+        <v>44679</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
         <v>29000</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="O4" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>29500</v>
+        <v>24500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1475</v>
+        <v>1225</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44679</v>
+        <v>44650</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N5" t="n">
-        <v>24000</v>
+        <v>31000</v>
       </c>
       <c r="O5" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="P5" t="n">
-        <v>24500</v>
+        <v>31500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1225</v>
+        <v>1575</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44636</v>
+        <v>44650</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -840,11 +840,11 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N6" t="n">
         <v>29000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44664</v>
+        <v>44643</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -920,24 +920,24 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="N7" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="O7" t="n">
         <v>30000</v>
       </c>
       <c r="P7" t="n">
-        <v>29500</v>
+        <v>29000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1639</v>
+        <v>1450</v>
       </c>
       <c r="T7" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44643</v>
+        <v>44671</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="O8" t="n">
         <v>30000</v>
       </c>
       <c r="P8" t="n">
-        <v>29000</v>
+        <v>29500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1450</v>
+        <v>1475</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44671</v>
+        <v>44636</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44679</v>
+        <v>44965</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,24 +600,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="O3" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="P3" t="n">
-        <v>29500</v>
+        <v>34600</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1475</v>
+        <v>1922</v>
       </c>
       <c r="T3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44679</v>
+        <v>44965</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,24 +680,24 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
-        <v>24000</v>
+        <v>32000</v>
       </c>
       <c r="O4" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="P4" t="n">
-        <v>24500</v>
+        <v>32333</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1225</v>
+        <v>1796</v>
       </c>
       <c r="T4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44650</v>
+        <v>44679</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>31000</v>
+        <v>29000</v>
       </c>
       <c r="O5" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P5" t="n">
-        <v>31500</v>
+        <v>29500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1575</v>
+        <v>1475</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44650</v>
+        <v>44679</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="O6" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P6" t="n">
-        <v>29500</v>
+        <v>24500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1475</v>
+        <v>1225</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44643</v>
+        <v>44650</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -927,13 +927,13 @@
         <v>160</v>
       </c>
       <c r="N7" t="n">
-        <v>28000</v>
+        <v>31000</v>
       </c>
       <c r="O7" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P7" t="n">
-        <v>29000</v>
+        <v>31500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1450</v>
+        <v>1575</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44671</v>
+        <v>44650</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N8" t="n">
         <v>29000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44636</v>
+        <v>44643</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1084,31 +1084,191 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N9" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="O9" t="n">
         <v>30000</v>
       </c>
       <c r="P9" t="n">
+        <v>29000</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v>1450</v>
+      </c>
+      <c r="T9" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="E10" t="n">
+        <v>15</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>200</v>
+      </c>
+      <c r="N10" t="n">
+        <v>29000</v>
+      </c>
+      <c r="O10" t="n">
+        <v>30000</v>
+      </c>
+      <c r="P10" t="n">
         <v>29500</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>$/caja 20 kilos</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>Región de Coquimbo</t>
         </is>
       </c>
-      <c r="S9" t="n">
+      <c r="S10" t="n">
         <v>1475</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T10" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="E11" t="n">
+        <v>15</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>200</v>
+      </c>
+      <c r="N11" t="n">
+        <v>29000</v>
+      </c>
+      <c r="O11" t="n">
+        <v>30000</v>
+      </c>
+      <c r="P11" t="n">
+        <v>29500</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v>1475</v>
+      </c>
+      <c r="T11" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44664</v>
+        <v>44972</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="N2" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="O2" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P2" t="n">
-        <v>29500</v>
+        <v>27429</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1639</v>
+        <v>1524</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44965</v>
+        <v>44664</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N3" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="O3" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P3" t="n">
-        <v>34600</v>
+        <v>29500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1922</v>
+        <v>1639</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="O4" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="P4" t="n">
-        <v>32333</v>
+        <v>34600</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1796</v>
+        <v>1922</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44679</v>
+        <v>44965</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N5" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="O5" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="P5" t="n">
-        <v>29500</v>
+        <v>32333</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1475</v>
+        <v>1796</v>
       </c>
       <c r="T5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="O6" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P6" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1225</v>
+        <v>1475</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44650</v>
+        <v>44679</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>31000</v>
+        <v>24000</v>
       </c>
       <c r="O7" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="P7" t="n">
-        <v>31500</v>
+        <v>24500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1575</v>
+        <v>1225</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="N8" t="n">
-        <v>29000</v>
+        <v>31000</v>
       </c>
       <c r="O8" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P8" t="n">
-        <v>29500</v>
+        <v>31500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1475</v>
+        <v>1575</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44643</v>
+        <v>44650</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="N9" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="O9" t="n">
         <v>30000</v>
       </c>
       <c r="P9" t="n">
-        <v>29000</v>
+        <v>29500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1450</v>
+        <v>1475</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44671</v>
+        <v>44643</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N10" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="O10" t="n">
         <v>30000</v>
       </c>
       <c r="P10" t="n">
-        <v>29500</v>
+        <v>29000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1475</v>
+        <v>1450</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44636</v>
+        <v>44671</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
@@ -1269,6 +1269,86 @@
         <v>1475</v>
       </c>
       <c r="T11" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="E12" t="n">
+        <v>15</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>200</v>
+      </c>
+      <c r="N12" t="n">
+        <v>29000</v>
+      </c>
+      <c r="O12" t="n">
+        <v>30000</v>
+      </c>
+      <c r="P12" t="n">
+        <v>29500</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
+        <v>1475</v>
+      </c>
+      <c r="T12" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44972</v>
+        <v>44650</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,36 +520,36 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="N2" t="n">
-        <v>27000</v>
+        <v>31000</v>
       </c>
       <c r="O2" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="P2" t="n">
-        <v>27429</v>
+        <v>31500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1524</v>
+        <v>1575</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44664</v>
+        <v>44650</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N3" t="n">
         <v>29000</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1639</v>
+        <v>1475</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44679</v>
+        <v>44671</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44679</v>
+        <v>44972</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -920,36 +920,36 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="N7" t="n">
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="O7" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P7" t="n">
-        <v>24500</v>
+        <v>27429</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1225</v>
+        <v>1524</v>
       </c>
       <c r="T7" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44650</v>
+        <v>44679</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>31000</v>
+        <v>29000</v>
       </c>
       <c r="O8" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P8" t="n">
-        <v>31500</v>
+        <v>29500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1575</v>
+        <v>1475</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44650</v>
+        <v>44679</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="O9" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P9" t="n">
-        <v>29500</v>
+        <v>24500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1475</v>
+        <v>1225</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44643</v>
+        <v>44664</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1160,24 +1160,24 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N10" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="O10" t="n">
         <v>30000</v>
       </c>
       <c r="P10" t="n">
-        <v>29000</v>
+        <v>29500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1450</v>
+        <v>1639</v>
       </c>
       <c r="T10" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44671</v>
+        <v>44636</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44636</v>
+        <v>44643</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N12" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="O12" t="n">
         <v>30000</v>
       </c>
       <c r="P12" t="n">
-        <v>29500</v>
+        <v>29000</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1475</v>
+        <v>1450</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44965</v>
+        <v>44979</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,24 +680,24 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N4" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="O4" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P4" t="n">
-        <v>34600</v>
+        <v>29500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1922</v>
+        <v>1475</v>
       </c>
       <c r="T4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="O5" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="P5" t="n">
-        <v>32333</v>
+        <v>34600</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1796</v>
+        <v>1922</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44671</v>
+        <v>44965</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N6" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="O6" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="P6" t="n">
-        <v>29500</v>
+        <v>32333</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1475</v>
+        <v>1796</v>
       </c>
       <c r="T6" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44972</v>
+        <v>44671</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -924,32 +924,32 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="O7" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P7" t="n">
-        <v>27429</v>
+        <v>29500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1524</v>
+        <v>1475</v>
       </c>
       <c r="T7" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44679</v>
+        <v>44972</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1004,32 +1004,32 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="N8" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="O8" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P8" t="n">
-        <v>29500</v>
+        <v>27429</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1475</v>
+        <v>1524</v>
       </c>
       <c r="T8" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="O9" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P9" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1225</v>
+        <v>1475</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44664</v>
+        <v>44679</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1160,24 +1160,24 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="O10" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P10" t="n">
-        <v>29500</v>
+        <v>24500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1639</v>
+        <v>1225</v>
       </c>
       <c r="T10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44636</v>
+        <v>44664</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1240,11 +1240,11 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N11" t="n">
         <v>29000</v>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1475</v>
+        <v>1639</v>
       </c>
       <c r="T11" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44643</v>
+        <v>44636</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1324,31 +1324,111 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="O12" t="n">
         <v>30000</v>
       </c>
       <c r="P12" t="n">
+        <v>29500</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
+        <v>1475</v>
+      </c>
+      <c r="T12" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="E13" t="n">
+        <v>15</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>160</v>
+      </c>
+      <c r="N13" t="n">
+        <v>28000</v>
+      </c>
+      <c r="O13" t="n">
+        <v>30000</v>
+      </c>
+      <c r="P13" t="n">
         <v>29000</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>$/caja 20 kilos</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>Región de Coquimbo</t>
         </is>
       </c>
-      <c r="S12" t="n">
+      <c r="S13" t="n">
         <v>1450</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T13" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44979</v>
+        <v>44972</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,32 +684,32 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="N4" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="O4" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P4" t="n">
-        <v>29500</v>
+        <v>27429</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1475</v>
+        <v>1524</v>
       </c>
       <c r="T4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44965</v>
+        <v>44979</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -760,24 +760,24 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N5" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="O5" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P5" t="n">
-        <v>34600</v>
+        <v>29500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1922</v>
+        <v>1475</v>
       </c>
       <c r="T5" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44965</v>
+        <v>44664</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N6" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="O6" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="P6" t="n">
-        <v>32333</v>
+        <v>29500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1796</v>
+        <v>1639</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44671</v>
+        <v>44643</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N7" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="O7" t="n">
         <v>30000</v>
       </c>
       <c r="P7" t="n">
-        <v>29500</v>
+        <v>29000</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1475</v>
+        <v>1450</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44972</v>
+        <v>44671</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1004,32 +1004,32 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="O8" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P8" t="n">
-        <v>27429</v>
+        <v>29500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1524</v>
+        <v>1475</v>
       </c>
       <c r="T8" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44679</v>
+        <v>44965</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1080,24 +1080,24 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="O9" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="P9" t="n">
-        <v>29500</v>
+        <v>34600</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1475</v>
+        <v>1922</v>
       </c>
       <c r="T9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44679</v>
+        <v>44965</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1160,24 +1160,24 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N10" t="n">
-        <v>24000</v>
+        <v>32000</v>
       </c>
       <c r="O10" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="P10" t="n">
-        <v>24500</v>
+        <v>32333</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1225</v>
+        <v>1796</v>
       </c>
       <c r="T10" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44664</v>
+        <v>44636</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1240,11 +1240,11 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
         <v>29000</v>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1639</v>
+        <v>1475</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44636</v>
+        <v>44993</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="N12" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="O12" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="P12" t="n">
-        <v>29500</v>
+        <v>25462</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1475</v>
+        <v>1273</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44643</v>
+        <v>44679</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="O13" t="n">
         <v>30000</v>
       </c>
       <c r="P13" t="n">
-        <v>29000</v>
+        <v>29500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,9 +1426,89 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1450</v>
+        <v>1475</v>
       </c>
       <c r="T13" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>44679</v>
+      </c>
+      <c r="E14" t="n">
+        <v>15</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Tercera</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>200</v>
+      </c>
+      <c r="N14" t="n">
+        <v>24000</v>
+      </c>
+      <c r="O14" t="n">
+        <v>25000</v>
+      </c>
+      <c r="P14" t="n">
+        <v>24500</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="S14" t="n">
+        <v>1225</v>
+      </c>
+      <c r="T14" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44650</v>
+        <v>44993</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="N2" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="O2" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="P2" t="n">
-        <v>31500</v>
+        <v>25462</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1575</v>
+        <v>1273</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44650</v>
+        <v>44679</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
         <v>29000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44972</v>
+        <v>44679</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,36 +680,36 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="O4" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>27429</v>
+        <v>24500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1524</v>
+        <v>1225</v>
       </c>
       <c r="T4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44979</v>
+        <v>44965</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -760,24 +760,24 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="O5" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="P5" t="n">
-        <v>29500</v>
+        <v>34600</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1475</v>
+        <v>1922</v>
       </c>
       <c r="T5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44664</v>
+        <v>44965</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N6" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="O6" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="P6" t="n">
-        <v>29500</v>
+        <v>32333</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1639</v>
+        <v>1796</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44643</v>
+        <v>44664</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -920,24 +920,24 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N7" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="O7" t="n">
         <v>30000</v>
       </c>
       <c r="P7" t="n">
-        <v>29000</v>
+        <v>29500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1450</v>
+        <v>1639</v>
       </c>
       <c r="T7" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44671</v>
+        <v>44979</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N8" t="n">
         <v>29000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44965</v>
+        <v>44643</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1084,20 +1084,20 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N9" t="n">
-        <v>34000</v>
+        <v>28000</v>
       </c>
       <c r="O9" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P9" t="n">
-        <v>34600</v>
+        <v>29000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1922</v>
+        <v>1450</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44965</v>
+        <v>44650</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1160,24 +1160,24 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N10" t="n">
+        <v>31000</v>
+      </c>
+      <c r="O10" t="n">
         <v>32000</v>
       </c>
-      <c r="O10" t="n">
-        <v>33000</v>
-      </c>
       <c r="P10" t="n">
-        <v>32333</v>
+        <v>31500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1796</v>
+        <v>1575</v>
       </c>
       <c r="T10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44636</v>
+        <v>44650</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1240,11 +1240,11 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N11" t="n">
         <v>29000</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44993</v>
+        <v>44636</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="O12" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="P12" t="n">
-        <v>25462</v>
+        <v>29500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1273</v>
+        <v>1475</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44679</v>
+        <v>44972</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1404,32 +1404,32 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="N13" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="O13" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P13" t="n">
-        <v>29500</v>
+        <v>27429</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1475</v>
+        <v>1524</v>
       </c>
       <c r="T13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44679</v>
+        <v>44671</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="O14" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P14" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1225</v>
+        <v>1475</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44979</v>
+        <v>45007</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="N8" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="O8" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P8" t="n">
-        <v>29500</v>
+        <v>27500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1475</v>
+        <v>1375</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44643</v>
+        <v>44979</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="N9" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="O9" t="n">
         <v>30000</v>
       </c>
       <c r="P9" t="n">
-        <v>29000</v>
+        <v>29500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1450</v>
+        <v>1475</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44650</v>
+        <v>44643</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1167,13 +1167,13 @@
         <v>160</v>
       </c>
       <c r="N10" t="n">
-        <v>31000</v>
+        <v>28000</v>
       </c>
       <c r="O10" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P10" t="n">
-        <v>31500</v>
+        <v>29000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1575</v>
+        <v>1450</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="N11" t="n">
-        <v>29000</v>
+        <v>31000</v>
       </c>
       <c r="O11" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P11" t="n">
-        <v>29500</v>
+        <v>31500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1475</v>
+        <v>1575</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44636</v>
+        <v>44650</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1320,11 +1320,11 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N12" t="n">
         <v>29000</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44972</v>
+        <v>44636</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1400,36 +1400,36 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="O13" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P13" t="n">
-        <v>27429</v>
+        <v>29500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1524</v>
+        <v>1475</v>
       </c>
       <c r="T13" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44671</v>
+        <v>44972</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1484,31 +1484,111 @@
         </is>
       </c>
       <c r="M14" t="n">
+        <v>140</v>
+      </c>
+      <c r="N14" t="n">
+        <v>27000</v>
+      </c>
+      <c r="O14" t="n">
+        <v>28000</v>
+      </c>
+      <c r="P14" t="n">
+        <v>27429</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S14" t="n">
+        <v>1524</v>
+      </c>
+      <c r="T14" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="E15" t="n">
+        <v>15</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>200</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N15" t="n">
         <v>29000</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O15" t="n">
         <v>30000</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P15" t="n">
         <v>29500</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>$/caja 20 kilos</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>Región de Coquimbo</t>
         </is>
       </c>
-      <c r="S14" t="n">
+      <c r="S15" t="n">
         <v>1475</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T15" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44965</v>
+        <v>45014</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -760,24 +760,24 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>34000</v>
+        <v>24000</v>
       </c>
       <c r="O5" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="P5" t="n">
-        <v>34600</v>
+        <v>24500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1922</v>
+        <v>1225</v>
       </c>
       <c r="T5" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>32000</v>
+        <v>34000</v>
       </c>
       <c r="O6" t="n">
-        <v>33000</v>
+        <v>35000</v>
       </c>
       <c r="P6" t="n">
-        <v>32333</v>
+        <v>34600</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1796</v>
+        <v>1922</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44664</v>
+        <v>44965</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N7" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="O7" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="P7" t="n">
-        <v>29500</v>
+        <v>32333</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1639</v>
+        <v>1796</v>
       </c>
       <c r="T7" t="n">
         <v>18</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45007</v>
+        <v>44664</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N8" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="O8" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P8" t="n">
-        <v>27500</v>
+        <v>29500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1375</v>
+        <v>1639</v>
       </c>
       <c r="T8" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44979</v>
+        <v>45007</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="N9" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="O9" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P9" t="n">
-        <v>29500</v>
+        <v>27500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1475</v>
+        <v>1375</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44643</v>
+        <v>44979</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="N10" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="O10" t="n">
         <v>30000</v>
       </c>
       <c r="P10" t="n">
-        <v>29000</v>
+        <v>29500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1450</v>
+        <v>1475</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44650</v>
+        <v>44643</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1247,13 +1247,13 @@
         <v>160</v>
       </c>
       <c r="N11" t="n">
-        <v>31000</v>
+        <v>28000</v>
       </c>
       <c r="O11" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P11" t="n">
-        <v>31500</v>
+        <v>29000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1575</v>
+        <v>1450</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="N12" t="n">
-        <v>29000</v>
+        <v>31000</v>
       </c>
       <c r="O12" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P12" t="n">
-        <v>29500</v>
+        <v>31500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1475</v>
+        <v>1575</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44636</v>
+        <v>44650</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1400,11 +1400,11 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N13" t="n">
         <v>29000</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44972</v>
+        <v>44636</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1480,36 +1480,36 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="O14" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P14" t="n">
-        <v>27429</v>
+        <v>29500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1524</v>
+        <v>1475</v>
       </c>
       <c r="T14" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44671</v>
+        <v>44972</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1564,31 +1564,111 @@
         </is>
       </c>
       <c r="M15" t="n">
+        <v>140</v>
+      </c>
+      <c r="N15" t="n">
+        <v>27000</v>
+      </c>
+      <c r="O15" t="n">
+        <v>28000</v>
+      </c>
+      <c r="P15" t="n">
+        <v>27429</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="S15" t="n">
+        <v>1524</v>
+      </c>
+      <c r="T15" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="E16" t="n">
+        <v>15</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>200</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N16" t="n">
         <v>29000</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O16" t="n">
         <v>30000</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P16" t="n">
         <v>29500</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>$/caja 20 kilos</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>Región de Coquimbo</t>
         </is>
       </c>
-      <c r="S15" t="n">
+      <c r="S16" t="n">
         <v>1475</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T16" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44993</v>
+        <v>45014</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
+        <v>24000</v>
+      </c>
+      <c r="O2" t="n">
         <v>25000</v>
       </c>
-      <c r="O2" t="n">
-        <v>26000</v>
-      </c>
       <c r="P2" t="n">
-        <v>25462</v>
+        <v>24500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1273</v>
+        <v>1225</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44679</v>
+        <v>44965</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,24 +600,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="O3" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="P3" t="n">
-        <v>29500</v>
+        <v>34600</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1475</v>
+        <v>1922</v>
       </c>
       <c r="T3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44679</v>
+        <v>44965</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,24 +680,24 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
-        <v>24000</v>
+        <v>32000</v>
       </c>
       <c r="O4" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="P4" t="n">
-        <v>24500</v>
+        <v>32333</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1225</v>
+        <v>1796</v>
       </c>
       <c r="T4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45014</v>
+        <v>44643</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N5" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="O5" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P5" t="n">
-        <v>24500</v>
+        <v>29000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1225</v>
+        <v>1450</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44965</v>
+        <v>44650</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N6" t="n">
-        <v>34000</v>
+        <v>31000</v>
       </c>
       <c r="O6" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="P6" t="n">
-        <v>34600</v>
+        <v>31500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1922</v>
+        <v>1575</v>
       </c>
       <c r="T6" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44965</v>
+        <v>44650</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N7" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="O7" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="P7" t="n">
-        <v>32333</v>
+        <v>29500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1796</v>
+        <v>1475</v>
       </c>
       <c r="T7" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44664</v>
+        <v>44979</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N8" t="n">
         <v>29000</v>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1639</v>
+        <v>1475</v>
       </c>
       <c r="T8" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45007</v>
+        <v>44636</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="O9" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P9" t="n">
-        <v>27500</v>
+        <v>29500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1375</v>
+        <v>1475</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44979</v>
+        <v>44972</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1164,32 +1164,32 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="N10" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="O10" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P10" t="n">
-        <v>29500</v>
+        <v>27429</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1475</v>
+        <v>1524</v>
       </c>
       <c r="T10" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44643</v>
+        <v>44664</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1240,24 +1240,24 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N11" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="O11" t="n">
         <v>30000</v>
       </c>
       <c r="P11" t="n">
-        <v>29000</v>
+        <v>29500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1450</v>
+        <v>1639</v>
       </c>
       <c r="T11" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44650</v>
+        <v>44671</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>31000</v>
+        <v>29000</v>
       </c>
       <c r="O12" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P12" t="n">
-        <v>31500</v>
+        <v>29500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1575</v>
+        <v>1475</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44650</v>
+        <v>44993</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="N13" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="O13" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="P13" t="n">
-        <v>29500</v>
+        <v>25462</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1475</v>
+        <v>1273</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44636</v>
+        <v>44679</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44972</v>
+        <v>44679</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1560,36 +1560,36 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="O15" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P15" t="n">
-        <v>27429</v>
+        <v>24500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1524</v>
+        <v>1225</v>
       </c>
       <c r="T15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44671</v>
+        <v>45007</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N16" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="O16" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P16" t="n">
-        <v>29500</v>
+        <v>27500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1475</v>
+        <v>1375</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45007</v>
+        <v>45021</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1644,31 +1644,111 @@
         </is>
       </c>
       <c r="M16" t="n">
+        <v>250</v>
+      </c>
+      <c r="N16" t="n">
+        <v>22000</v>
+      </c>
+      <c r="O16" t="n">
+        <v>23000</v>
+      </c>
+      <c r="P16" t="n">
+        <v>22500</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="S16" t="n">
+        <v>1125</v>
+      </c>
+      <c r="T16" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>45007</v>
+      </c>
+      <c r="E17" t="n">
+        <v>15</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>160</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N17" t="n">
         <v>27000</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O17" t="n">
         <v>28000</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P17" t="n">
         <v>27500</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>$/caja 20 kilos</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>Región de Coquimbo</t>
         </is>
       </c>
-      <c r="S16" t="n">
+      <c r="S17" t="n">
         <v>1375</v>
       </c>
-      <c r="T16" t="n">
+      <c r="T17" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44979</v>
+        <v>45028</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>29000</v>
+        <v>21000</v>
       </c>
       <c r="O8" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P8" t="n">
-        <v>29500</v>
+        <v>21500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1475</v>
+        <v>1075</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44636</v>
+        <v>44979</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1080,11 +1080,11 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N9" t="n">
         <v>29000</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44972</v>
+        <v>44636</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1160,36 +1160,36 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="O10" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P10" t="n">
-        <v>27429</v>
+        <v>29500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1524</v>
+        <v>1475</v>
       </c>
       <c r="T10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44664</v>
+        <v>44972</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="N11" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="O11" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P11" t="n">
-        <v>29500</v>
+        <v>27429</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1639</v>
+        <v>1524</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44671</v>
+        <v>44664</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N12" t="n">
         <v>29000</v>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1475</v>
+        <v>1639</v>
       </c>
       <c r="T12" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44993</v>
+        <v>44671</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="O13" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="P13" t="n">
-        <v>25462</v>
+        <v>29500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1273</v>
+        <v>1475</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44679</v>
+        <v>44993</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="N14" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="O14" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="P14" t="n">
-        <v>29500</v>
+        <v>25462</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1475</v>
+        <v>1273</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="O15" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P15" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1225</v>
+        <v>1475</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45021</v>
+        <v>44679</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O16" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="P16" t="n">
-        <v>22500</v>
+        <v>24500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1125</v>
+        <v>1225</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45007</v>
+        <v>45021</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1724,31 +1724,111 @@
         </is>
       </c>
       <c r="M17" t="n">
+        <v>250</v>
+      </c>
+      <c r="N17" t="n">
+        <v>22000</v>
+      </c>
+      <c r="O17" t="n">
+        <v>23000</v>
+      </c>
+      <c r="P17" t="n">
+        <v>22500</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>$/caja 20 kilos</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Región de Coquimbo</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
+        <v>1125</v>
+      </c>
+      <c r="T17" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Agrícola del Norte S.A. de Arica</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>45007</v>
+      </c>
+      <c r="E18" t="n">
+        <v>15</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>100107</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>100107011</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Tuna</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>160</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N18" t="n">
         <v>27000</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O18" t="n">
         <v>28000</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P18" t="n">
         <v>27500</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>$/caja 20 kilos</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>Región de Coquimbo</t>
         </is>
       </c>
-      <c r="S17" t="n">
+      <c r="S18" t="n">
         <v>1375</v>
       </c>
-      <c r="T17" t="n">
+      <c r="T18" t="n">
         <v>20</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45014</v>
+        <v>44643</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N2" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="O2" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P2" t="n">
-        <v>24500</v>
+        <v>29000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1225</v>
+        <v>1450</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44965</v>
+        <v>45028</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,24 +600,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>34000</v>
+        <v>21000</v>
       </c>
       <c r="O3" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="P3" t="n">
-        <v>34600</v>
+        <v>21500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1922</v>
+        <v>1075</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44965</v>
+        <v>44636</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,24 +680,24 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="O4" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="P4" t="n">
-        <v>32333</v>
+        <v>29500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1796</v>
+        <v>1475</v>
       </c>
       <c r="T4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44643</v>
+        <v>44671</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="O5" t="n">
         <v>30000</v>
       </c>
       <c r="P5" t="n">
-        <v>29000</v>
+        <v>29500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1450</v>
+        <v>1475</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44650</v>
+        <v>45014</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>31000</v>
+        <v>24000</v>
       </c>
       <c r="O6" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="P6" t="n">
-        <v>31500</v>
+        <v>24500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1575</v>
+        <v>1225</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44650</v>
+        <v>45021</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -927,13 +927,13 @@
         <v>250</v>
       </c>
       <c r="N7" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="O7" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="P7" t="n">
-        <v>29500</v>
+        <v>22500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1475</v>
+        <v>1125</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45028</v>
+        <v>44664</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N8" t="n">
-        <v>21000</v>
+        <v>29000</v>
       </c>
       <c r="O8" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P8" t="n">
-        <v>21500</v>
+        <v>29500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1075</v>
+        <v>1639</v>
       </c>
       <c r="T8" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44979</v>
+        <v>44993</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="N9" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="O9" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="P9" t="n">
-        <v>29500</v>
+        <v>25462</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1475</v>
+        <v>1273</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44636</v>
+        <v>44965</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1164,20 +1164,20 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="O10" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="P10" t="n">
-        <v>29500</v>
+        <v>34600</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1475</v>
+        <v>1922</v>
       </c>
       <c r="T10" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44972</v>
+        <v>44965</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="N11" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="O11" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="P11" t="n">
-        <v>27429</v>
+        <v>32333</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1524</v>
+        <v>1796</v>
       </c>
       <c r="T11" t="n">
         <v>18</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44664</v>
+        <v>44979</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N12" t="n">
         <v>29000</v>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1639</v>
+        <v>1475</v>
       </c>
       <c r="T12" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44671</v>
+        <v>44650</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N13" t="n">
-        <v>29000</v>
+        <v>31000</v>
       </c>
       <c r="O13" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P13" t="n">
-        <v>29500</v>
+        <v>31500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1475</v>
+        <v>1575</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44993</v>
+        <v>44650</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="N14" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="O14" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="P14" t="n">
-        <v>25462</v>
+        <v>29500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1273</v>
+        <v>1475</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44679</v>
+        <v>44972</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1564,32 +1564,32 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="N15" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="O15" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P15" t="n">
-        <v>29500</v>
+        <v>27429</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1475</v>
+        <v>1524</v>
       </c>
       <c r="T15" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44679</v>
+        <v>45007</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1640,20 +1640,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N16" t="n">
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="O16" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P16" t="n">
-        <v>24500</v>
+        <v>27500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1225</v>
+        <v>1375</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45021</v>
+        <v>44679</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="O17" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="P17" t="n">
-        <v>22500</v>
+        <v>29500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1125</v>
+        <v>1475</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45007</v>
+        <v>44679</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="O18" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P18" t="n">
-        <v>27500</v>
+        <v>24500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1375</v>
+        <v>1225</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44643</v>
+        <v>44965</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="O2" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="P2" t="n">
-        <v>29000</v>
+        <v>34600</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1450</v>
+        <v>1922</v>
       </c>
       <c r="T2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45028</v>
+        <v>44965</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N3" t="n">
-        <v>21000</v>
+        <v>32000</v>
       </c>
       <c r="O3" t="n">
-        <v>22000</v>
+        <v>33000</v>
       </c>
       <c r="P3" t="n">
-        <v>21500</v>
+        <v>32333</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1075</v>
+        <v>1796</v>
       </c>
       <c r="T3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44636</v>
+        <v>44664</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,11 +680,11 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N4" t="n">
         <v>29000</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1475</v>
+        <v>1639</v>
       </c>
       <c r="T4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44671</v>
+        <v>45007</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N5" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="O5" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P5" t="n">
-        <v>29500</v>
+        <v>27500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1475</v>
+        <v>1375</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45014</v>
+        <v>44679</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -847,13 +847,13 @@
         <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="O6" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P6" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1225</v>
+        <v>1475</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45021</v>
+        <v>44679</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O7" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="P7" t="n">
-        <v>22500</v>
+        <v>24500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1125</v>
+        <v>1225</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44664</v>
+        <v>44671</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
         <v>29000</v>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1639</v>
+        <v>1475</v>
       </c>
       <c r="T8" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44993</v>
+        <v>44643</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="N9" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="O9" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="P9" t="n">
-        <v>25462</v>
+        <v>29000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1273</v>
+        <v>1450</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44965</v>
+        <v>44979</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1160,24 +1160,24 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N10" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="O10" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P10" t="n">
-        <v>34600</v>
+        <v>29500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1922</v>
+        <v>1475</v>
       </c>
       <c r="T10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44965</v>
+        <v>44650</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1240,24 +1240,24 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N11" t="n">
+        <v>31000</v>
+      </c>
+      <c r="O11" t="n">
         <v>32000</v>
       </c>
-      <c r="O11" t="n">
-        <v>33000</v>
-      </c>
       <c r="P11" t="n">
-        <v>32333</v>
+        <v>31500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1796</v>
+        <v>1575</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44979</v>
+        <v>44650</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44650</v>
+        <v>45021</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="N13" t="n">
-        <v>31000</v>
+        <v>22000</v>
       </c>
       <c r="O13" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="P13" t="n">
-        <v>31500</v>
+        <v>22500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1575</v>
+        <v>1125</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44650</v>
+        <v>44993</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="N14" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="O14" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="P14" t="n">
-        <v>29500</v>
+        <v>25462</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1475</v>
+        <v>1273</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45007</v>
+        <v>45028</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="O16" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P16" t="n">
-        <v>27500</v>
+        <v>21500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1375</v>
+        <v>1075</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44679</v>
+        <v>44636</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44679</v>
+        <v>45014</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1800,7 +1800,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44965</v>
+        <v>44636</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -524,20 +524,20 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="O2" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P2" t="n">
-        <v>34600</v>
+        <v>29500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1922</v>
+        <v>1475</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44965</v>
+        <v>44979</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N3" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="O3" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="P3" t="n">
-        <v>32333</v>
+        <v>29500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1796</v>
+        <v>1475</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44664</v>
+        <v>45028</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>29000</v>
+        <v>21000</v>
       </c>
       <c r="O4" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>29500</v>
+        <v>21500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1639</v>
+        <v>1075</v>
       </c>
       <c r="T4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45007</v>
+        <v>44679</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="O5" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P5" t="n">
-        <v>27500</v>
+        <v>29500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1375</v>
+        <v>1475</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M6" t="n">
         <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="O6" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P6" t="n">
-        <v>29500</v>
+        <v>24500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1475</v>
+        <v>1225</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44679</v>
+        <v>45014</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -920,7 +920,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44671</v>
+        <v>45007</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N8" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="O8" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P8" t="n">
-        <v>29500</v>
+        <v>27500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1475</v>
+        <v>1375</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44643</v>
+        <v>44650</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1087,13 +1087,13 @@
         <v>160</v>
       </c>
       <c r="N9" t="n">
-        <v>28000</v>
+        <v>31000</v>
       </c>
       <c r="O9" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P9" t="n">
-        <v>29000</v>
+        <v>31500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1450</v>
+        <v>1575</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44979</v>
+        <v>44650</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44650</v>
+        <v>44643</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1247,13 +1247,13 @@
         <v>160</v>
       </c>
       <c r="N11" t="n">
-        <v>31000</v>
+        <v>28000</v>
       </c>
       <c r="O11" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P11" t="n">
-        <v>31500</v>
+        <v>29000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1575</v>
+        <v>1450</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44650</v>
+        <v>44972</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1324,32 +1324,32 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="N12" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="O12" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P12" t="n">
-        <v>29500</v>
+        <v>27429</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1475</v>
+        <v>1524</v>
       </c>
       <c r="T12" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45021</v>
+        <v>44664</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N13" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="O13" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="P13" t="n">
-        <v>22500</v>
+        <v>29500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1125</v>
+        <v>1639</v>
       </c>
       <c r="T13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44972</v>
+        <v>45021</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1564,32 +1564,32 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="N15" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="O15" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="P15" t="n">
-        <v>27429</v>
+        <v>22500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1524</v>
+        <v>1125</v>
       </c>
       <c r="T15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45028</v>
+        <v>44965</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1640,24 +1640,24 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>21000</v>
+        <v>34000</v>
       </c>
       <c r="O16" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="P16" t="n">
-        <v>21500</v>
+        <v>34600</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1075</v>
+        <v>1922</v>
       </c>
       <c r="T16" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44636</v>
+        <v>44965</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1720,24 +1720,24 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N17" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="O17" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="P17" t="n">
-        <v>29500</v>
+        <v>32333</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1475</v>
+        <v>1796</v>
       </c>
       <c r="T17" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45014</v>
+        <v>44671</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1807,13 +1807,13 @@
         <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="O18" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P18" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1225</v>
+        <v>1475</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44636</v>
+        <v>45007</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N2" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="O2" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P2" t="n">
-        <v>29500</v>
+        <v>27500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1475</v>
+        <v>1375</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44979</v>
+        <v>45014</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="O3" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P3" t="n">
-        <v>29500</v>
+        <v>24500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1475</v>
+        <v>1225</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45028</v>
+        <v>44965</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,24 +680,24 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>21000</v>
+        <v>34000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="P4" t="n">
-        <v>21500</v>
+        <v>34600</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1075</v>
+        <v>1922</v>
       </c>
       <c r="T4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44679</v>
+        <v>44965</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N5" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="O5" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="P5" t="n">
-        <v>29500</v>
+        <v>32333</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1475</v>
+        <v>1796</v>
       </c>
       <c r="T5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44679</v>
+        <v>44972</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -840,36 +840,36 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="N6" t="n">
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="O6" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P6" t="n">
-        <v>24500</v>
+        <v>27429</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1225</v>
+        <v>1524</v>
       </c>
       <c r="T6" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45014</v>
+        <v>44993</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="N7" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="O7" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="P7" t="n">
-        <v>24500</v>
+        <v>25462</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1225</v>
+        <v>1273</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45007</v>
+        <v>44643</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>160</v>
       </c>
       <c r="N8" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="O8" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P8" t="n">
-        <v>27500</v>
+        <v>29000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1375</v>
+        <v>1450</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44643</v>
+        <v>44671</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="O11" t="n">
         <v>30000</v>
       </c>
       <c r="P11" t="n">
-        <v>29000</v>
+        <v>29500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1450</v>
+        <v>1475</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44972</v>
+        <v>44979</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1324,32 +1324,32 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="N12" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="O12" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P12" t="n">
-        <v>27429</v>
+        <v>29500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1524</v>
+        <v>1475</v>
       </c>
       <c r="T12" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44664</v>
+        <v>45028</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>29000</v>
+        <v>21000</v>
       </c>
       <c r="O13" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P13" t="n">
-        <v>29500</v>
+        <v>21500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1639</v>
+        <v>1075</v>
       </c>
       <c r="T13" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44993</v>
+        <v>44636</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="O14" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="P14" t="n">
-        <v>25462</v>
+        <v>29500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1273</v>
+        <v>1475</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45021</v>
+        <v>44664</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1564,20 +1564,20 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N15" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="O15" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="P15" t="n">
-        <v>22500</v>
+        <v>29500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1125</v>
+        <v>1639</v>
       </c>
       <c r="T15" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44965</v>
+        <v>45021</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1640,24 +1640,24 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N16" t="n">
-        <v>34000</v>
+        <v>22000</v>
       </c>
       <c r="O16" t="n">
-        <v>35000</v>
+        <v>23000</v>
       </c>
       <c r="P16" t="n">
-        <v>34600</v>
+        <v>22500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1922</v>
+        <v>1125</v>
       </c>
       <c r="T16" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44965</v>
+        <v>44679</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1724,20 +1724,20 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="O17" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="P17" t="n">
-        <v>32333</v>
+        <v>29500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1796</v>
+        <v>1475</v>
       </c>
       <c r="T17" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44671</v>
+        <v>44679</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="O18" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P18" t="n">
-        <v>29500</v>
+        <v>24500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1475</v>
+        <v>1225</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45007</v>
+        <v>44636</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="O2" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P2" t="n">
-        <v>27500</v>
+        <v>29500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1375</v>
+        <v>1475</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45014</v>
+        <v>44979</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N3" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="O3" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P3" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1225</v>
+        <v>1475</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44965</v>
+        <v>45028</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,24 +680,24 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>34000</v>
+        <v>21000</v>
       </c>
       <c r="O4" t="n">
-        <v>35000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>34600</v>
+        <v>21500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1922</v>
+        <v>1075</v>
       </c>
       <c r="T4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44965</v>
+        <v>44679</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="O5" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="P5" t="n">
-        <v>32333</v>
+        <v>29500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1796</v>
+        <v>1475</v>
       </c>
       <c r="T5" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44972</v>
+        <v>44679</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -840,36 +840,36 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="O6" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P6" t="n">
-        <v>27429</v>
+        <v>24500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1524</v>
+        <v>1225</v>
       </c>
       <c r="T6" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44993</v>
+        <v>45014</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
+        <v>24000</v>
+      </c>
+      <c r="O7" t="n">
         <v>25000</v>
       </c>
-      <c r="O7" t="n">
-        <v>26000</v>
-      </c>
       <c r="P7" t="n">
-        <v>25462</v>
+        <v>24500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1273</v>
+        <v>1225</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44643</v>
+        <v>45007</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>160</v>
       </c>
       <c r="N8" t="n">
+        <v>27000</v>
+      </c>
+      <c r="O8" t="n">
         <v>28000</v>
       </c>
-      <c r="O8" t="n">
-        <v>30000</v>
-      </c>
       <c r="P8" t="n">
-        <v>29000</v>
+        <v>27500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1450</v>
+        <v>1375</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44671</v>
+        <v>44643</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1240,20 +1240,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N11" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="O11" t="n">
         <v>30000</v>
       </c>
       <c r="P11" t="n">
-        <v>29500</v>
+        <v>29000</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1475</v>
+        <v>1450</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44979</v>
+        <v>44972</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1324,32 +1324,32 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="N12" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="O12" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P12" t="n">
-        <v>29500</v>
+        <v>27429</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1475</v>
+        <v>1524</v>
       </c>
       <c r="T12" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45028</v>
+        <v>44664</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1404,20 +1404,20 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N13" t="n">
-        <v>21000</v>
+        <v>29000</v>
       </c>
       <c r="O13" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P13" t="n">
-        <v>21500</v>
+        <v>29500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1075</v>
+        <v>1639</v>
       </c>
       <c r="T13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44636</v>
+        <v>44993</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="N14" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="O14" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="P14" t="n">
-        <v>29500</v>
+        <v>25462</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1475</v>
+        <v>1273</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44664</v>
+        <v>45021</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1564,20 +1564,20 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N15" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="O15" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="P15" t="n">
-        <v>29500</v>
+        <v>22500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1639</v>
+        <v>1125</v>
       </c>
       <c r="T15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45021</v>
+        <v>44965</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1640,24 +1640,24 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N16" t="n">
-        <v>22000</v>
+        <v>34000</v>
       </c>
       <c r="O16" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="P16" t="n">
-        <v>22500</v>
+        <v>34600</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1125</v>
+        <v>1922</v>
       </c>
       <c r="T16" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44679</v>
+        <v>44965</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1724,20 +1724,20 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N17" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="O17" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="P17" t="n">
-        <v>29500</v>
+        <v>32333</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1475</v>
+        <v>1796</v>
       </c>
       <c r="T17" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44679</v>
+        <v>44671</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1800,20 +1800,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
         <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="O18" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P18" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1225</v>
+        <v>1475</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45007</v>
+        <v>45021</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="N2" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="O2" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="P2" t="n">
-        <v>27500</v>
+        <v>22500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1375</v>
+        <v>1125</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45014</v>
+        <v>44650</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N3" t="n">
-        <v>24000</v>
+        <v>31000</v>
       </c>
       <c r="O3" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="P3" t="n">
-        <v>24500</v>
+        <v>31500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1225</v>
+        <v>1575</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44965</v>
+        <v>44650</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,24 +680,24 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N4" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="O4" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P4" t="n">
-        <v>34600</v>
+        <v>29500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1922</v>
+        <v>1475</v>
       </c>
       <c r="T4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44965</v>
+        <v>44993</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="N5" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="O5" t="n">
-        <v>33000</v>
+        <v>26000</v>
       </c>
       <c r="P5" t="n">
-        <v>32333</v>
+        <v>25462</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1796</v>
+        <v>1273</v>
       </c>
       <c r="T5" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44972</v>
+        <v>44679</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -844,32 +844,32 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="O6" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P6" t="n">
-        <v>27429</v>
+        <v>29500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1524</v>
+        <v>1475</v>
       </c>
       <c r="T6" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44993</v>
+        <v>44679</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
+        <v>24000</v>
+      </c>
+      <c r="O7" t="n">
         <v>25000</v>
       </c>
-      <c r="O7" t="n">
-        <v>26000</v>
-      </c>
       <c r="P7" t="n">
-        <v>25462</v>
+        <v>24500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1273</v>
+        <v>1225</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44643</v>
+        <v>44636</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="O8" t="n">
         <v>30000</v>
       </c>
       <c r="P8" t="n">
-        <v>29000</v>
+        <v>29500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1450</v>
+        <v>1475</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44650</v>
+        <v>44643</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1087,13 +1087,13 @@
         <v>160</v>
       </c>
       <c r="N9" t="n">
-        <v>31000</v>
+        <v>28000</v>
       </c>
       <c r="O9" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P9" t="n">
-        <v>31500</v>
+        <v>29000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1575</v>
+        <v>1450</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44650</v>
+        <v>44664</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N10" t="n">
         <v>29000</v>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1475</v>
+        <v>1639</v>
       </c>
       <c r="T10" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44671</v>
+        <v>44965</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1240,24 +1240,24 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="O11" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="P11" t="n">
-        <v>29500</v>
+        <v>34600</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1475</v>
+        <v>1922</v>
       </c>
       <c r="T11" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44979</v>
+        <v>44965</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1324,20 +1324,20 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N12" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="O12" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="P12" t="n">
-        <v>29500</v>
+        <v>32333</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1475</v>
+        <v>1796</v>
       </c>
       <c r="T12" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44636</v>
+        <v>44671</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44664</v>
+        <v>45007</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1564,20 +1564,20 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="N15" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="O15" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P15" t="n">
-        <v>29500</v>
+        <v>27500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1639</v>
+        <v>1375</v>
       </c>
       <c r="T15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45021</v>
+        <v>44979</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1647,13 +1647,13 @@
         <v>250</v>
       </c>
       <c r="N16" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="O16" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="P16" t="n">
-        <v>22500</v>
+        <v>29500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1125</v>
+        <v>1475</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44679</v>
+        <v>45014</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1727,13 +1727,13 @@
         <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="O17" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P17" t="n">
-        <v>29500</v>
+        <v>24500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1475</v>
+        <v>1225</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44679</v>
+        <v>44972</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1800,36 +1800,36 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="N18" t="n">
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="O18" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P18" t="n">
-        <v>24500</v>
+        <v>27429</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1225</v>
+        <v>1524</v>
       </c>
       <c r="T18" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45021</v>
+        <v>45028</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
+        <v>21000</v>
+      </c>
+      <c r="O2" t="n">
         <v>22000</v>
       </c>
-      <c r="O2" t="n">
-        <v>23000</v>
-      </c>
       <c r="P2" t="n">
-        <v>22500</v>
+        <v>21500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1125</v>
+        <v>1075</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44650</v>
+        <v>44993</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="N3" t="n">
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="O3" t="n">
-        <v>32000</v>
+        <v>26000</v>
       </c>
       <c r="P3" t="n">
-        <v>31500</v>
+        <v>25462</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1575</v>
+        <v>1273</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44650</v>
+        <v>45014</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="O4" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>29500</v>
+        <v>24500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1475</v>
+        <v>1225</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44993</v>
+        <v>45021</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="N5" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O5" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="P5" t="n">
-        <v>25462</v>
+        <v>22500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1273</v>
+        <v>1125</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44679</v>
+        <v>44650</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N6" t="n">
-        <v>29000</v>
+        <v>31000</v>
       </c>
       <c r="O6" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P6" t="n">
-        <v>29500</v>
+        <v>31500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1475</v>
+        <v>1575</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44679</v>
+        <v>44650</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N7" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="O7" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P7" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1225</v>
+        <v>1475</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44636</v>
+        <v>44979</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1000,11 +1000,11 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N8" t="n">
         <v>29000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44643</v>
+        <v>44636</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="O9" t="n">
         <v>30000</v>
       </c>
       <c r="P9" t="n">
-        <v>29000</v>
+        <v>29500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1450</v>
+        <v>1475</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44965</v>
+        <v>44679</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1240,24 +1240,24 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="O11" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P11" t="n">
-        <v>34600</v>
+        <v>29500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1922</v>
+        <v>1475</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44965</v>
+        <v>44679</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1320,24 +1320,24 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>32000</v>
+        <v>24000</v>
       </c>
       <c r="O12" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="P12" t="n">
-        <v>32333</v>
+        <v>24500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1346,10 +1346,10 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1796</v>
+        <v>1225</v>
       </c>
       <c r="T12" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45028</v>
+        <v>44965</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1400,24 +1400,24 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>21000</v>
+        <v>34000</v>
       </c>
       <c r="O13" t="n">
-        <v>22000</v>
+        <v>35000</v>
       </c>
       <c r="P13" t="n">
-        <v>21500</v>
+        <v>34600</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1075</v>
+        <v>1922</v>
       </c>
       <c r="T13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44671</v>
+        <v>44965</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1484,20 +1484,20 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N14" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="O14" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="P14" t="n">
-        <v>29500</v>
+        <v>32333</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1475</v>
+        <v>1796</v>
       </c>
       <c r="T14" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44979</v>
+        <v>44671</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
         <v>29000</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45014</v>
+        <v>44972</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1724,32 +1724,32 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="N17" t="n">
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="O17" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P17" t="n">
-        <v>24500</v>
+        <v>27429</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1225</v>
+        <v>1524</v>
       </c>
       <c r="T17" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44972</v>
+        <v>44643</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1800,36 +1800,36 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="N18" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="O18" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P18" t="n">
-        <v>27429</v>
+        <v>29000</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1524</v>
+        <v>1450</v>
       </c>
       <c r="T18" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45028</v>
+        <v>44679</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -527,13 +527,13 @@
         <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>21000</v>
+        <v>29000</v>
       </c>
       <c r="O2" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P2" t="n">
-        <v>21500</v>
+        <v>29500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1075</v>
+        <v>1475</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44993</v>
+        <v>44679</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
+        <v>24000</v>
+      </c>
+      <c r="O3" t="n">
         <v>25000</v>
       </c>
-      <c r="O3" t="n">
-        <v>26000</v>
-      </c>
       <c r="P3" t="n">
-        <v>25462</v>
+        <v>24500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1273</v>
+        <v>1225</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45014</v>
+        <v>45028</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -687,13 +687,13 @@
         <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O4" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>24500</v>
+        <v>21500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1225</v>
+        <v>1075</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45021</v>
+        <v>44650</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="N5" t="n">
-        <v>22000</v>
+        <v>31000</v>
       </c>
       <c r="O5" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="P5" t="n">
-        <v>22500</v>
+        <v>31500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1125</v>
+        <v>1575</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="N6" t="n">
-        <v>31000</v>
+        <v>29000</v>
       </c>
       <c r="O6" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P6" t="n">
-        <v>31500</v>
+        <v>29500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1575</v>
+        <v>1475</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44650</v>
+        <v>44979</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44979</v>
+        <v>44671</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
         <v>29000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44636</v>
+        <v>45007</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N9" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="O9" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P9" t="n">
-        <v>29500</v>
+        <v>27500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1475</v>
+        <v>1375</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44664</v>
+        <v>45021</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1164,20 +1164,20 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N10" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="O10" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="P10" t="n">
-        <v>29500</v>
+        <v>22500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1639</v>
+        <v>1125</v>
       </c>
       <c r="T10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44679</v>
+        <v>44972</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1244,32 +1244,32 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="N11" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="O11" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P11" t="n">
-        <v>29500</v>
+        <v>27429</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1475</v>
+        <v>1524</v>
       </c>
       <c r="T11" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44679</v>
+        <v>44993</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="N12" t="n">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="O12" t="n">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="P12" t="n">
-        <v>24500</v>
+        <v>25462</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1225</v>
+        <v>1273</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45007</v>
+        <v>44643</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>160</v>
       </c>
       <c r="N15" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="O15" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P15" t="n">
-        <v>27500</v>
+        <v>29000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1375</v>
+        <v>1450</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44671</v>
+        <v>45014</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1647,13 +1647,13 @@
         <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="O16" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P16" t="n">
-        <v>29500</v>
+        <v>24500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1475</v>
+        <v>1225</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44972</v>
+        <v>44636</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1720,36 +1720,36 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="O17" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P17" t="n">
-        <v>27429</v>
+        <v>29500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1524</v>
+        <v>1475</v>
       </c>
       <c r="T17" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44643</v>
+        <v>44664</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1800,24 +1800,24 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N18" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="O18" t="n">
         <v>30000</v>
       </c>
       <c r="P18" t="n">
-        <v>29000</v>
+        <v>29500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1450</v>
+        <v>1639</v>
       </c>
       <c r="T18" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44679</v>
+        <v>44671</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44679</v>
+        <v>44965</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,24 +600,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>24000</v>
+        <v>34000</v>
       </c>
       <c r="O3" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="P3" t="n">
-        <v>24500</v>
+        <v>34600</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1225</v>
+        <v>1922</v>
       </c>
       <c r="T3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45028</v>
+        <v>44965</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
-        <v>21000</v>
+        <v>32000</v>
       </c>
       <c r="O4" t="n">
-        <v>22000</v>
+        <v>33000</v>
       </c>
       <c r="P4" t="n">
-        <v>21500</v>
+        <v>32333</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1075</v>
+        <v>1796</v>
       </c>
       <c r="T4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44650</v>
+        <v>44643</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -767,13 +767,13 @@
         <v>160</v>
       </c>
       <c r="N5" t="n">
-        <v>31000</v>
+        <v>28000</v>
       </c>
       <c r="O5" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P5" t="n">
-        <v>31500</v>
+        <v>29000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1575</v>
+        <v>1450</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44650</v>
+        <v>44679</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
         <v>29000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44979</v>
+        <v>44679</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="O7" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P7" t="n">
-        <v>29500</v>
+        <v>24500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1475</v>
+        <v>1225</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44671</v>
+        <v>45021</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N8" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="O8" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="P8" t="n">
-        <v>29500</v>
+        <v>22500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1475</v>
+        <v>1125</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45007</v>
+        <v>44993</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="N9" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="O9" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="P9" t="n">
-        <v>27500</v>
+        <v>25462</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1375</v>
+        <v>1273</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45021</v>
+        <v>44650</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="N10" t="n">
-        <v>22000</v>
+        <v>31000</v>
       </c>
       <c r="O10" t="n">
-        <v>23000</v>
+        <v>32000</v>
       </c>
       <c r="P10" t="n">
-        <v>22500</v>
+        <v>31500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1125</v>
+        <v>1575</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44972</v>
+        <v>44650</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1244,32 +1244,32 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="N11" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="O11" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P11" t="n">
-        <v>27429</v>
+        <v>29500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1524</v>
+        <v>1475</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44993</v>
+        <v>45028</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="O12" t="n">
-        <v>26000</v>
+        <v>22000</v>
       </c>
       <c r="P12" t="n">
-        <v>25462</v>
+        <v>21500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1273</v>
+        <v>1075</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44965</v>
+        <v>44664</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N13" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="O13" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P13" t="n">
-        <v>34600</v>
+        <v>29500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1922</v>
+        <v>1639</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44965</v>
+        <v>44636</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1480,24 +1480,24 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="O14" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="P14" t="n">
-        <v>32333</v>
+        <v>29500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1796</v>
+        <v>1475</v>
       </c>
       <c r="T14" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44643</v>
+        <v>45007</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>160</v>
       </c>
       <c r="N15" t="n">
+        <v>27000</v>
+      </c>
+      <c r="O15" t="n">
         <v>28000</v>
       </c>
-      <c r="O15" t="n">
-        <v>30000</v>
-      </c>
       <c r="P15" t="n">
-        <v>29000</v>
+        <v>27500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1450</v>
+        <v>1375</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45014</v>
+        <v>44972</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1644,32 +1644,32 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="N16" t="n">
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="O16" t="n">
-        <v>25000</v>
+        <v>28000</v>
       </c>
       <c r="P16" t="n">
-        <v>24500</v>
+        <v>27429</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1225</v>
+        <v>1524</v>
       </c>
       <c r="T16" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44636</v>
+        <v>45014</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="O17" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P17" t="n">
-        <v>29500</v>
+        <v>24500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1475</v>
+        <v>1225</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44664</v>
+        <v>44979</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N18" t="n">
         <v>29000</v>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1639</v>
+        <v>1475</v>
       </c>
       <c r="T18" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44671</v>
+        <v>44679</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44965</v>
+        <v>44679</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,24 +600,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>34000</v>
+        <v>24000</v>
       </c>
       <c r="O3" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="P3" t="n">
-        <v>34600</v>
+        <v>24500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1922</v>
+        <v>1225</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44965</v>
+        <v>45028</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>32000</v>
+        <v>21000</v>
       </c>
       <c r="O4" t="n">
-        <v>33000</v>
+        <v>22000</v>
       </c>
       <c r="P4" t="n">
-        <v>32333</v>
+        <v>21500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1796</v>
+        <v>1075</v>
       </c>
       <c r="T4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44643</v>
+        <v>44650</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -767,13 +767,13 @@
         <v>160</v>
       </c>
       <c r="N5" t="n">
-        <v>28000</v>
+        <v>31000</v>
       </c>
       <c r="O5" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P5" t="n">
-        <v>29000</v>
+        <v>31500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1450</v>
+        <v>1575</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44679</v>
+        <v>44650</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N6" t="n">
         <v>29000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44679</v>
+        <v>44979</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N7" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="O7" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P7" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1225</v>
+        <v>1475</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45021</v>
+        <v>44671</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="O8" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="P8" t="n">
-        <v>22500</v>
+        <v>29500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1125</v>
+        <v>1475</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44993</v>
+        <v>45007</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="N9" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="O9" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="P9" t="n">
-        <v>25462</v>
+        <v>27500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1273</v>
+        <v>1375</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44650</v>
+        <v>45021</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="N10" t="n">
-        <v>31000</v>
+        <v>22000</v>
       </c>
       <c r="O10" t="n">
-        <v>32000</v>
+        <v>23000</v>
       </c>
       <c r="P10" t="n">
-        <v>31500</v>
+        <v>22500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1575</v>
+        <v>1125</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44650</v>
+        <v>44972</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1244,32 +1244,32 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="N11" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="O11" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P11" t="n">
-        <v>29500</v>
+        <v>27429</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1475</v>
+        <v>1524</v>
       </c>
       <c r="T11" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45028</v>
+        <v>44993</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="N12" t="n">
-        <v>21000</v>
+        <v>25000</v>
       </c>
       <c r="O12" t="n">
-        <v>22000</v>
+        <v>26000</v>
       </c>
       <c r="P12" t="n">
-        <v>21500</v>
+        <v>25462</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1075</v>
+        <v>1273</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44664</v>
+        <v>44965</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="O13" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="P13" t="n">
-        <v>29500</v>
+        <v>34600</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1639</v>
+        <v>1922</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44636</v>
+        <v>44965</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1480,24 +1480,24 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N14" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="O14" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="P14" t="n">
-        <v>29500</v>
+        <v>32333</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1475</v>
+        <v>1796</v>
       </c>
       <c r="T14" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45007</v>
+        <v>44643</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>160</v>
       </c>
       <c r="N15" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="O15" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P15" t="n">
-        <v>27500</v>
+        <v>29000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1375</v>
+        <v>1450</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44972</v>
+        <v>45014</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1644,32 +1644,32 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="O16" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P16" t="n">
-        <v>27429</v>
+        <v>24500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1524</v>
+        <v>1225</v>
       </c>
       <c r="T16" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45014</v>
+        <v>44636</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="O17" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P17" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1225</v>
+        <v>1475</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44979</v>
+        <v>44664</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1804,7 +1804,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N18" t="n">
         <v>29000</v>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1475</v>
+        <v>1639</v>
       </c>
       <c r="T18" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44671</v>
+        <v>44972</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -524,32 +524,32 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="N2" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="O2" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P2" t="n">
-        <v>29500</v>
+        <v>27429</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1475</v>
+        <v>1524</v>
       </c>
       <c r="T2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44965</v>
+        <v>44671</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,24 +600,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="O3" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P3" t="n">
-        <v>34600</v>
+        <v>29500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1922</v>
+        <v>1475</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44965</v>
+        <v>45014</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>32000</v>
+        <v>24000</v>
       </c>
       <c r="O4" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>32333</v>
+        <v>24500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1796</v>
+        <v>1225</v>
       </c>
       <c r="T4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44679</v>
+        <v>45007</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N6" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="O6" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P6" t="n">
-        <v>29500</v>
+        <v>27500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1475</v>
+        <v>1375</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44679</v>
+        <v>45028</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O7" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P7" t="n">
-        <v>24500</v>
+        <v>21500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1225</v>
+        <v>1075</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45021</v>
+        <v>44664</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N8" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="O8" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="P8" t="n">
-        <v>22500</v>
+        <v>29500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1125</v>
+        <v>1639</v>
       </c>
       <c r="T8" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44993</v>
+        <v>44679</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="O9" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="P9" t="n">
-        <v>25462</v>
+        <v>29500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1273</v>
+        <v>1475</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44650</v>
+        <v>44679</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>31000</v>
+        <v>24000</v>
       </c>
       <c r="O10" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="P10" t="n">
-        <v>31500</v>
+        <v>24500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1575</v>
+        <v>1225</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44650</v>
+        <v>44979</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45028</v>
+        <v>44636</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>21000</v>
+        <v>29000</v>
       </c>
       <c r="O12" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P12" t="n">
-        <v>21500</v>
+        <v>29500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1075</v>
+        <v>1475</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44664</v>
+        <v>44965</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N13" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="O13" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="P13" t="n">
-        <v>29500</v>
+        <v>34600</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1639</v>
+        <v>1922</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44636</v>
+        <v>44965</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1480,24 +1480,24 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N14" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="O14" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="P14" t="n">
-        <v>29500</v>
+        <v>32333</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1475</v>
+        <v>1796</v>
       </c>
       <c r="T14" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45007</v>
+        <v>44993</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="N15" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="O15" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="P15" t="n">
-        <v>27500</v>
+        <v>25462</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1375</v>
+        <v>1273</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44972</v>
+        <v>45021</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1644,32 +1644,32 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="N16" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="O16" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="P16" t="n">
-        <v>27429</v>
+        <v>22500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1524</v>
+        <v>1125</v>
       </c>
       <c r="T16" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45014</v>
+        <v>44650</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N17" t="n">
-        <v>24000</v>
+        <v>31000</v>
       </c>
       <c r="O17" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="P17" t="n">
-        <v>24500</v>
+        <v>31500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1225</v>
+        <v>1575</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44979</v>
+        <v>44650</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44972</v>
+        <v>44671</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -524,32 +524,32 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="O2" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P2" t="n">
-        <v>27429</v>
+        <v>29500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1524</v>
+        <v>1475</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44671</v>
+        <v>44965</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,24 +600,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="O3" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="P3" t="n">
-        <v>29500</v>
+        <v>34600</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1475</v>
+        <v>1922</v>
       </c>
       <c r="T3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45014</v>
+        <v>44965</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
-        <v>24000</v>
+        <v>32000</v>
       </c>
       <c r="O4" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="P4" t="n">
-        <v>24500</v>
+        <v>32333</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1225</v>
+        <v>1796</v>
       </c>
       <c r="T4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45007</v>
+        <v>44679</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="O6" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P6" t="n">
-        <v>27500</v>
+        <v>29500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1375</v>
+        <v>1475</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45028</v>
+        <v>44679</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O7" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P7" t="n">
-        <v>21500</v>
+        <v>24500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1075</v>
+        <v>1225</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44664</v>
+        <v>45021</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1004,20 +1004,20 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="N8" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="O8" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="P8" t="n">
-        <v>29500</v>
+        <v>22500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1639</v>
+        <v>1125</v>
       </c>
       <c r="T8" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44679</v>
+        <v>44993</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="N9" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="O9" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="P9" t="n">
-        <v>29500</v>
+        <v>25462</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1475</v>
+        <v>1273</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44679</v>
+        <v>44650</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N10" t="n">
-        <v>24000</v>
+        <v>31000</v>
       </c>
       <c r="O10" t="n">
-        <v>25000</v>
+        <v>32000</v>
       </c>
       <c r="P10" t="n">
-        <v>24500</v>
+        <v>31500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1225</v>
+        <v>1575</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44979</v>
+        <v>44650</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44636</v>
+        <v>45028</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>29000</v>
+        <v>21000</v>
       </c>
       <c r="O12" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P12" t="n">
-        <v>29500</v>
+        <v>21500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1475</v>
+        <v>1075</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44965</v>
+        <v>44664</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N13" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="O13" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P13" t="n">
-        <v>34600</v>
+        <v>29500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1922</v>
+        <v>1639</v>
       </c>
       <c r="T13" t="n">
         <v>18</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44965</v>
+        <v>44636</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1480,24 +1480,24 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="O14" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="P14" t="n">
-        <v>32333</v>
+        <v>29500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1796</v>
+        <v>1475</v>
       </c>
       <c r="T14" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44993</v>
+        <v>45007</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="N15" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="O15" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="P15" t="n">
-        <v>25462</v>
+        <v>27500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1273</v>
+        <v>1375</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45021</v>
+        <v>44972</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1644,32 +1644,32 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="N16" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="O16" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="P16" t="n">
-        <v>22500</v>
+        <v>27429</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1125</v>
+        <v>1524</v>
       </c>
       <c r="T16" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44650</v>
+        <v>45014</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>31000</v>
+        <v>24000</v>
       </c>
       <c r="O17" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="P17" t="n">
-        <v>31500</v>
+        <v>24500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1575</v>
+        <v>1225</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44650</v>
+        <v>44979</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44972</v>
+        <v>44650</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,36 +520,36 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="N2" t="n">
-        <v>27000</v>
+        <v>31000</v>
       </c>
       <c r="O2" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="P2" t="n">
-        <v>27429</v>
+        <v>31500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1524</v>
+        <v>1575</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44671</v>
+        <v>44650</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N3" t="n">
         <v>29000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45014</v>
+        <v>44979</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N4" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="O4" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P4" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1225</v>
+        <v>1475</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44643</v>
+        <v>45021</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="N5" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="O5" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="P5" t="n">
-        <v>29000</v>
+        <v>22500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1450</v>
+        <v>1125</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45028</v>
+        <v>45014</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -927,13 +927,13 @@
         <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O7" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P7" t="n">
-        <v>21500</v>
+        <v>24500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1075</v>
+        <v>1225</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44664</v>
+        <v>44671</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
         <v>29000</v>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1639</v>
+        <v>1475</v>
       </c>
       <c r="T8" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44679</v>
+        <v>44643</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N9" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="O9" t="n">
         <v>30000</v>
       </c>
       <c r="P9" t="n">
-        <v>29500</v>
+        <v>29000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1475</v>
+        <v>1450</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44679</v>
+        <v>45028</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>200</v>
       </c>
       <c r="N10" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O10" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P10" t="n">
-        <v>24500</v>
+        <v>21500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1225</v>
+        <v>1075</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44979</v>
+        <v>44993</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="N11" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="O11" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="P11" t="n">
-        <v>29500</v>
+        <v>25462</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1475</v>
+        <v>1273</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44636</v>
+        <v>44972</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1320,36 +1320,36 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="N12" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="O12" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P12" t="n">
-        <v>29500</v>
+        <v>27429</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1475</v>
+        <v>1524</v>
       </c>
       <c r="T12" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44965</v>
+        <v>44679</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1400,24 +1400,24 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="O13" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P13" t="n">
-        <v>34600</v>
+        <v>29500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1426,10 +1426,10 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1922</v>
+        <v>1475</v>
       </c>
       <c r="T13" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44965</v>
+        <v>44679</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1480,24 +1480,24 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>32000</v>
+        <v>24000</v>
       </c>
       <c r="O14" t="n">
-        <v>33000</v>
+        <v>25000</v>
       </c>
       <c r="P14" t="n">
-        <v>32333</v>
+        <v>24500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1796</v>
+        <v>1225</v>
       </c>
       <c r="T14" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44993</v>
+        <v>44636</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1560,20 +1560,20 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="O15" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="P15" t="n">
-        <v>25462</v>
+        <v>29500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1273</v>
+        <v>1475</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45021</v>
+        <v>44664</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1644,20 +1644,20 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N16" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="O16" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="P16" t="n">
-        <v>22500</v>
+        <v>29500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1125</v>
+        <v>1639</v>
       </c>
       <c r="T16" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44650</v>
+        <v>44965</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1724,20 +1724,20 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>31000</v>
+        <v>34000</v>
       </c>
       <c r="O17" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="P17" t="n">
-        <v>31500</v>
+        <v>34600</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1575</v>
+        <v>1922</v>
       </c>
       <c r="T17" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44650</v>
+        <v>44965</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1804,20 +1804,20 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N18" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="O18" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="P18" t="n">
-        <v>29500</v>
+        <v>32333</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1475</v>
+        <v>1796</v>
       </c>
       <c r="T18" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44650</v>
+        <v>45028</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>31000</v>
+        <v>21000</v>
       </c>
       <c r="O2" t="n">
-        <v>32000</v>
+        <v>22000</v>
       </c>
       <c r="P2" t="n">
-        <v>31500</v>
+        <v>21500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1575</v>
+        <v>1075</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44650</v>
+        <v>44671</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
         <v>29000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44979</v>
+        <v>44643</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="N4" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="O4" t="n">
         <v>30000</v>
       </c>
       <c r="P4" t="n">
-        <v>29500</v>
+        <v>29000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1475</v>
+        <v>1450</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45021</v>
+        <v>44965</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -760,24 +760,24 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>22000</v>
+        <v>34000</v>
       </c>
       <c r="O5" t="n">
-        <v>23000</v>
+        <v>35000</v>
       </c>
       <c r="P5" t="n">
-        <v>22500</v>
+        <v>34600</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1125</v>
+        <v>1922</v>
       </c>
       <c r="T5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45007</v>
+        <v>44965</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N6" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="O6" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="P6" t="n">
-        <v>27500</v>
+        <v>32333</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1375</v>
+        <v>1796</v>
       </c>
       <c r="T6" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45014</v>
+        <v>44979</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N7" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="O7" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P7" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1225</v>
+        <v>1475</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44671</v>
+        <v>44993</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="N8" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="O8" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="P8" t="n">
-        <v>29500</v>
+        <v>25462</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1475</v>
+        <v>1273</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44643</v>
+        <v>45014</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="O9" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P9" t="n">
-        <v>29000</v>
+        <v>24500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1450</v>
+        <v>1225</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45028</v>
+        <v>45021</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N10" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O10" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="P10" t="n">
-        <v>21500</v>
+        <v>22500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1075</v>
+        <v>1125</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44993</v>
+        <v>44664</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1244,20 +1244,20 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="N11" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="O11" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="P11" t="n">
-        <v>25462</v>
+        <v>29500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1273</v>
+        <v>1639</v>
       </c>
       <c r="T11" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44679</v>
+        <v>44650</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N13" t="n">
-        <v>29000</v>
+        <v>31000</v>
       </c>
       <c r="O13" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P13" t="n">
-        <v>29500</v>
+        <v>31500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1475</v>
+        <v>1575</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44679</v>
+        <v>44650</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N14" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="O14" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P14" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1225</v>
+        <v>1475</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44664</v>
+        <v>44679</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N16" t="n">
         <v>29000</v>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1639</v>
+        <v>1475</v>
       </c>
       <c r="T16" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44965</v>
+        <v>44679</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1720,24 +1720,24 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>34000</v>
+        <v>24000</v>
       </c>
       <c r="O17" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="P17" t="n">
-        <v>34600</v>
+        <v>24500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1922</v>
+        <v>1225</v>
       </c>
       <c r="T17" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44965</v>
+        <v>45007</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1804,20 +1804,20 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N18" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="O18" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="P18" t="n">
-        <v>32333</v>
+        <v>27500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1796</v>
+        <v>1375</v>
       </c>
       <c r="T18" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45028</v>
+        <v>45021</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N2" t="n">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="O2" t="n">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="P2" t="n">
-        <v>21500</v>
+        <v>22500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1075</v>
+        <v>1125</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44671</v>
+        <v>44965</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,24 +600,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="O3" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="P3" t="n">
-        <v>29500</v>
+        <v>34600</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1475</v>
+        <v>1922</v>
       </c>
       <c r="T3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44643</v>
+        <v>44965</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,24 +680,24 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="O4" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="P4" t="n">
-        <v>29000</v>
+        <v>32333</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1450</v>
+        <v>1796</v>
       </c>
       <c r="T4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44965</v>
+        <v>44664</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N5" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="O5" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P5" t="n">
-        <v>34600</v>
+        <v>29500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1922</v>
+        <v>1639</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44965</v>
+        <v>44979</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N6" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="O6" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="P6" t="n">
-        <v>32333</v>
+        <v>29500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1796</v>
+        <v>1475</v>
       </c>
       <c r="T6" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44979</v>
+        <v>44650</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="N7" t="n">
-        <v>29000</v>
+        <v>31000</v>
       </c>
       <c r="O7" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P7" t="n">
-        <v>29500</v>
+        <v>31500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1475</v>
+        <v>1575</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44993</v>
+        <v>44650</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="N8" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="O8" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="P8" t="n">
-        <v>25462</v>
+        <v>29500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1273</v>
+        <v>1475</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45014</v>
+        <v>44671</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1087,13 +1087,13 @@
         <v>200</v>
       </c>
       <c r="N9" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="O9" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P9" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1225</v>
+        <v>1475</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45021</v>
+        <v>45007</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1164,16 +1164,16 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="N10" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="O10" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="P10" t="n">
-        <v>22500</v>
+        <v>27500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1125</v>
+        <v>1375</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44664</v>
+        <v>44636</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1240,11 +1240,11 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
         <v>29000</v>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1639</v>
+        <v>1475</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44972</v>
+        <v>44679</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1324,32 +1324,32 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="O12" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P12" t="n">
-        <v>27429</v>
+        <v>29500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1524</v>
+        <v>1475</v>
       </c>
       <c r="T12" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44650</v>
+        <v>44679</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>31000</v>
+        <v>24000</v>
       </c>
       <c r="O13" t="n">
-        <v>32000</v>
+        <v>25000</v>
       </c>
       <c r="P13" t="n">
-        <v>31500</v>
+        <v>24500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1575</v>
+        <v>1225</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44650</v>
+        <v>45014</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="O14" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P14" t="n">
-        <v>29500</v>
+        <v>24500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1475</v>
+        <v>1225</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44636</v>
+        <v>44643</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N15" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="O15" t="n">
         <v>30000</v>
       </c>
       <c r="P15" t="n">
-        <v>29500</v>
+        <v>29000</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1475</v>
+        <v>1450</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44679</v>
+        <v>44972</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1644,32 +1644,32 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="N16" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="O16" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P16" t="n">
-        <v>29500</v>
+        <v>27429</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1475</v>
+        <v>1524</v>
       </c>
       <c r="T16" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44679</v>
+        <v>45028</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1720,20 +1720,20 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
         <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O17" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P17" t="n">
-        <v>24500</v>
+        <v>21500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1225</v>
+        <v>1075</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45007</v>
+        <v>44993</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="N18" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="O18" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="P18" t="n">
-        <v>27500</v>
+        <v>25462</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1375</v>
+        <v>1273</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45021</v>
+        <v>44972</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -524,32 +524,32 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="N2" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="O2" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="P2" t="n">
-        <v>22500</v>
+        <v>27429</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1125</v>
+        <v>1524</v>
       </c>
       <c r="T2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44965</v>
+        <v>44979</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,24 +600,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N3" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="O3" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P3" t="n">
-        <v>34600</v>
+        <v>29500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1922</v>
+        <v>1475</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44965</v>
+        <v>45021</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N4" t="n">
-        <v>32000</v>
+        <v>22000</v>
       </c>
       <c r="O4" t="n">
-        <v>33000</v>
+        <v>23000</v>
       </c>
       <c r="P4" t="n">
-        <v>32333</v>
+        <v>22500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1796</v>
+        <v>1125</v>
       </c>
       <c r="T4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44664</v>
+        <v>44650</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -760,24 +760,24 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="N5" t="n">
-        <v>29000</v>
+        <v>31000</v>
       </c>
       <c r="O5" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P5" t="n">
-        <v>29500</v>
+        <v>31500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1639</v>
+        <v>1575</v>
       </c>
       <c r="T5" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44979</v>
+        <v>44650</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44650</v>
+        <v>45007</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -920,20 +920,20 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>160</v>
       </c>
       <c r="N7" t="n">
-        <v>31000</v>
+        <v>27000</v>
       </c>
       <c r="O7" t="n">
-        <v>32000</v>
+        <v>28000</v>
       </c>
       <c r="P7" t="n">
-        <v>31500</v>
+        <v>27500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1575</v>
+        <v>1375</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44650</v>
+        <v>44671</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
         <v>29000</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44671</v>
+        <v>44993</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="N9" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="O9" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="P9" t="n">
-        <v>29500</v>
+        <v>25462</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1475</v>
+        <v>1273</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45007</v>
+        <v>44643</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1160,20 +1160,20 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
         <v>160</v>
       </c>
       <c r="N10" t="n">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="O10" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P10" t="n">
-        <v>27500</v>
+        <v>29000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1375</v>
+        <v>1450</v>
       </c>
       <c r="T10" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44636</v>
+        <v>44664</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1240,11 +1240,11 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N11" t="n">
         <v>29000</v>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1475</v>
+        <v>1639</v>
       </c>
       <c r="T11" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45014</v>
+        <v>44636</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1480,20 +1480,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M14" t="n">
         <v>200</v>
       </c>
       <c r="N14" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="O14" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P14" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1225</v>
+        <v>1475</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44643</v>
+        <v>44965</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1564,20 +1564,20 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N15" t="n">
-        <v>28000</v>
+        <v>34000</v>
       </c>
       <c r="O15" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="P15" t="n">
-        <v>29000</v>
+        <v>34600</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1450</v>
+        <v>1922</v>
       </c>
       <c r="T15" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44972</v>
+        <v>44965</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="N16" t="n">
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="O16" t="n">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="P16" t="n">
-        <v>27429</v>
+        <v>32333</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1662,11 +1662,11 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1524</v>
+        <v>1796</v>
       </c>
       <c r="T16" t="n">
         <v>18</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45028</v>
+        <v>45014</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1727,13 +1727,13 @@
         <v>200</v>
       </c>
       <c r="N17" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O17" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P17" t="n">
-        <v>21500</v>
+        <v>24500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1075</v>
+        <v>1225</v>
       </c>
       <c r="T17" t="n">
         <v>20</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44993</v>
+        <v>45028</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1804,16 +1804,16 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="N18" t="n">
-        <v>25000</v>
+        <v>21000</v>
       </c>
       <c r="O18" t="n">
-        <v>26000</v>
+        <v>22000</v>
       </c>
       <c r="P18" t="n">
-        <v>25462</v>
+        <v>21500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1273</v>
+        <v>1075</v>
       </c>
       <c r="T18" t="n">
         <v>20</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44972</v>
+        <v>44636</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,36 +520,36 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="N2" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="O2" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P2" t="n">
-        <v>27429</v>
+        <v>29500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1524</v>
+        <v>1475</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44979</v>
+        <v>44671</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
         <v>29000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45021</v>
+        <v>44664</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="O4" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="P4" t="n">
-        <v>22500</v>
+        <v>29500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1125</v>
+        <v>1639</v>
       </c>
       <c r="T4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44650</v>
+        <v>45028</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>31000</v>
+        <v>21000</v>
       </c>
       <c r="O5" t="n">
-        <v>32000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>31500</v>
+        <v>21500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1575</v>
+        <v>1075</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44650</v>
+        <v>45021</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -847,13 +847,13 @@
         <v>250</v>
       </c>
       <c r="N6" t="n">
-        <v>29000</v>
+        <v>22000</v>
       </c>
       <c r="O6" t="n">
-        <v>30000</v>
+        <v>23000</v>
       </c>
       <c r="P6" t="n">
-        <v>29500</v>
+        <v>22500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1475</v>
+        <v>1125</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45007</v>
+        <v>44972</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="N7" t="n">
         <v>27000</v>
@@ -933,23 +933,23 @@
         <v>28000</v>
       </c>
       <c r="P7" t="n">
-        <v>27500</v>
+        <v>27429</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1375</v>
+        <v>1524</v>
       </c>
       <c r="T7" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44671</v>
+        <v>44650</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N8" t="n">
-        <v>29000</v>
+        <v>31000</v>
       </c>
       <c r="O8" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P8" t="n">
-        <v>29500</v>
+        <v>31500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1475</v>
+        <v>1575</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44993</v>
+        <v>44650</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="N9" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="O9" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="P9" t="n">
-        <v>25462</v>
+        <v>29500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1273</v>
+        <v>1475</v>
       </c>
       <c r="T9" t="n">
         <v>20</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44664</v>
+        <v>44679</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
         <v>29000</v>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1266,10 +1266,10 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1639</v>
+        <v>1475</v>
       </c>
       <c r="T11" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="O12" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P12" t="n">
-        <v>29500</v>
+        <v>24500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1475</v>
+        <v>1225</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44679</v>
+        <v>45014</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44636</v>
+        <v>44979</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1480,11 +1480,11 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N14" t="n">
         <v>29000</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44965</v>
+        <v>44993</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1560,24 +1560,24 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="N15" t="n">
-        <v>34000</v>
+        <v>25000</v>
       </c>
       <c r="O15" t="n">
-        <v>35000</v>
+        <v>26000</v>
       </c>
       <c r="P15" t="n">
-        <v>34600</v>
+        <v>25462</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1586,10 +1586,10 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1922</v>
+        <v>1273</v>
       </c>
       <c r="T15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44965</v>
+        <v>45007</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1644,20 +1644,20 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N16" t="n">
-        <v>32000</v>
+        <v>27000</v>
       </c>
       <c r="O16" t="n">
-        <v>33000</v>
+        <v>28000</v>
       </c>
       <c r="P16" t="n">
-        <v>32333</v>
+        <v>27500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1796</v>
+        <v>1375</v>
       </c>
       <c r="T16" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45014</v>
+        <v>44965</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1720,24 +1720,24 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>24000</v>
+        <v>34000</v>
       </c>
       <c r="O17" t="n">
-        <v>25000</v>
+        <v>35000</v>
       </c>
       <c r="P17" t="n">
-        <v>24500</v>
+        <v>34600</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1225</v>
+        <v>1922</v>
       </c>
       <c r="T17" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45028</v>
+        <v>44965</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1804,20 +1804,20 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N18" t="n">
-        <v>21000</v>
+        <v>32000</v>
       </c>
       <c r="O18" t="n">
-        <v>22000</v>
+        <v>33000</v>
       </c>
       <c r="P18" t="n">
-        <v>21500</v>
+        <v>32333</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1075</v>
+        <v>1796</v>
       </c>
       <c r="T18" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44671</v>
+        <v>44965</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,24 +600,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="O3" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="P3" t="n">
-        <v>29500</v>
+        <v>34600</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1475</v>
+        <v>1922</v>
       </c>
       <c r="T3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44664</v>
+        <v>44965</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="O4" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="P4" t="n">
-        <v>29500</v>
+        <v>32333</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1639</v>
+        <v>1796</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45028</v>
+        <v>44679</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -767,13 +767,13 @@
         <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>21000</v>
+        <v>29000</v>
       </c>
       <c r="O5" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P5" t="n">
-        <v>21500</v>
+        <v>29500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1075</v>
+        <v>1475</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45021</v>
+        <v>44679</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N6" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O6" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="P6" t="n">
-        <v>22500</v>
+        <v>24500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1125</v>
+        <v>1225</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44972</v>
+        <v>45021</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -924,32 +924,32 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="N7" t="n">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="O7" t="n">
-        <v>28000</v>
+        <v>23000</v>
       </c>
       <c r="P7" t="n">
-        <v>27429</v>
+        <v>22500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1524</v>
+        <v>1125</v>
       </c>
       <c r="T7" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44650</v>
+        <v>44671</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>31000</v>
+        <v>29000</v>
       </c>
       <c r="O8" t="n">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="P8" t="n">
-        <v>31500</v>
+        <v>29500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1575</v>
+        <v>1475</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44650</v>
+        <v>44972</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1084,32 +1084,32 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="N9" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="O9" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P9" t="n">
-        <v>29500</v>
+        <v>27429</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1475</v>
+        <v>1524</v>
       </c>
       <c r="T9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44643</v>
+        <v>44664</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1160,24 +1160,24 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N10" t="n">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="O10" t="n">
         <v>30000</v>
       </c>
       <c r="P10" t="n">
-        <v>29000</v>
+        <v>29500</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1450</v>
+        <v>1639</v>
       </c>
       <c r="T10" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44679</v>
+        <v>45014</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1247,13 +1247,13 @@
         <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="O11" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P11" t="n">
-        <v>29500</v>
+        <v>24500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1475</v>
+        <v>1225</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44679</v>
+        <v>45028</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>24000</v>
+        <v>21000</v>
       </c>
       <c r="O12" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="P12" t="n">
-        <v>24500</v>
+        <v>21500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1225</v>
+        <v>1075</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45014</v>
+        <v>44643</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N13" t="n">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="O13" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P13" t="n">
-        <v>24500</v>
+        <v>29000</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1225</v>
+        <v>1450</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44979</v>
+        <v>44993</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="N14" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="O14" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="P14" t="n">
-        <v>29500</v>
+        <v>25462</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1475</v>
+        <v>1273</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44993</v>
+        <v>45007</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="N15" t="n">
-        <v>25000</v>
+        <v>27000</v>
       </c>
       <c r="O15" t="n">
-        <v>26000</v>
+        <v>28000</v>
       </c>
       <c r="P15" t="n">
-        <v>25462</v>
+        <v>27500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1273</v>
+        <v>1375</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45007</v>
+        <v>44979</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="N16" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="O16" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P16" t="n">
-        <v>27500</v>
+        <v>29500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1375</v>
+        <v>1475</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44965</v>
+        <v>44650</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1724,20 +1724,20 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="N17" t="n">
-        <v>34000</v>
+        <v>31000</v>
       </c>
       <c r="O17" t="n">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="P17" t="n">
-        <v>34600</v>
+        <v>31500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1922</v>
+        <v>1575</v>
       </c>
       <c r="T17" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44965</v>
+        <v>44650</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1804,20 +1804,20 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N18" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="O18" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="P18" t="n">
-        <v>32333</v>
+        <v>29500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1796</v>
+        <v>1475</v>
       </c>
       <c r="T18" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44965</v>
+        <v>44671</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,24 +600,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="O3" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P3" t="n">
-        <v>34600</v>
+        <v>29500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1922</v>
+        <v>1475</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44965</v>
+        <v>44664</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="O4" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="P4" t="n">
-        <v>32333</v>
+        <v>29500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1796</v>
+        <v>1639</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44679</v>
+        <v>45028</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -767,13 +767,13 @@
         <v>200</v>
       </c>
       <c r="N5" t="n">
-        <v>29000</v>
+        <v>21000</v>
       </c>
       <c r="O5" t="n">
-        <v>30000</v>
+        <v>22000</v>
       </c>
       <c r="P5" t="n">
-        <v>29500</v>
+        <v>21500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1475</v>
+        <v>1075</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44679</v>
+        <v>45021</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N6" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O6" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="P6" t="n">
-        <v>24500</v>
+        <v>22500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1225</v>
+        <v>1125</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45021</v>
+        <v>44972</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -924,32 +924,32 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="N7" t="n">
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="O7" t="n">
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="P7" t="n">
-        <v>22500</v>
+        <v>27429</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1125</v>
+        <v>1524</v>
       </c>
       <c r="T7" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44671</v>
+        <v>44650</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N8" t="n">
-        <v>29000</v>
+        <v>31000</v>
       </c>
       <c r="O8" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P8" t="n">
-        <v>29500</v>
+        <v>31500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1475</v>
+        <v>1575</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44972</v>
+        <v>44650</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1084,32 +1084,32 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="N9" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="O9" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P9" t="n">
-        <v>27429</v>
+        <v>29500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1524</v>
+        <v>1475</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44664</v>
+        <v>44643</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1160,24 +1160,24 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="N10" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="O10" t="n">
         <v>30000</v>
       </c>
       <c r="P10" t="n">
-        <v>29500</v>
+        <v>29000</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1639</v>
+        <v>1450</v>
       </c>
       <c r="T10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45014</v>
+        <v>44679</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1247,13 +1247,13 @@
         <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="O11" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P11" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1225</v>
+        <v>1475</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45028</v>
+        <v>44679</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="O12" t="n">
-        <v>22000</v>
+        <v>25000</v>
       </c>
       <c r="P12" t="n">
-        <v>21500</v>
+        <v>24500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1075</v>
+        <v>1225</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44643</v>
+        <v>45014</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N13" t="n">
-        <v>28000</v>
+        <v>24000</v>
       </c>
       <c r="O13" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P13" t="n">
-        <v>29000</v>
+        <v>24500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1450</v>
+        <v>1225</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44993</v>
+        <v>44979</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="N14" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="O14" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="P14" t="n">
-        <v>25462</v>
+        <v>29500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1273</v>
+        <v>1475</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45007</v>
+        <v>44993</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="N15" t="n">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="O15" t="n">
-        <v>28000</v>
+        <v>26000</v>
       </c>
       <c r="P15" t="n">
-        <v>27500</v>
+        <v>25462</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1375</v>
+        <v>1273</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44979</v>
+        <v>45007</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1644,16 +1644,16 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="N16" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="O16" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P16" t="n">
-        <v>29500</v>
+        <v>27500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1475</v>
+        <v>1375</v>
       </c>
       <c r="T16" t="n">
         <v>20</v>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44650</v>
+        <v>44965</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1724,20 +1724,20 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>31000</v>
+        <v>34000</v>
       </c>
       <c r="O17" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="P17" t="n">
-        <v>31500</v>
+        <v>34600</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1575</v>
+        <v>1922</v>
       </c>
       <c r="T17" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44650</v>
+        <v>44965</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1804,20 +1804,20 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N18" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="O18" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="P18" t="n">
-        <v>29500</v>
+        <v>32333</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1475</v>
+        <v>1796</v>
       </c>
       <c r="T18" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44636</v>
+        <v>44679</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -520,7 +520,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44965</v>
+        <v>44679</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,24 +600,24 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>34000</v>
+        <v>24000</v>
       </c>
       <c r="O3" t="n">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="P3" t="n">
-        <v>34600</v>
+        <v>24500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1922</v>
+        <v>1225</v>
       </c>
       <c r="T3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44965</v>
+        <v>44636</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,24 +680,24 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="O4" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="P4" t="n">
-        <v>32333</v>
+        <v>29500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1796</v>
+        <v>1475</v>
       </c>
       <c r="T4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44679</v>
+        <v>44643</v>
       </c>
       <c r="E5" t="n">
         <v>15</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N5" t="n">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="O5" t="n">
         <v>30000</v>
       </c>
       <c r="P5" t="n">
-        <v>29500</v>
+        <v>29000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1475</v>
+        <v>1450</v>
       </c>
       <c r="T5" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44679</v>
+        <v>44664</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -840,24 +840,24 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N6" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="O6" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P6" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1225</v>
+        <v>1639</v>
       </c>
       <c r="T6" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45021</v>
+        <v>45014</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -924,16 +924,16 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N7" t="n">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="O7" t="n">
-        <v>23000</v>
+        <v>25000</v>
       </c>
       <c r="P7" t="n">
-        <v>22500</v>
+        <v>24500</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1125</v>
+        <v>1225</v>
       </c>
       <c r="T7" t="n">
         <v>20</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44671</v>
+        <v>44650</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N8" t="n">
-        <v>29000</v>
+        <v>31000</v>
       </c>
       <c r="O8" t="n">
-        <v>30000</v>
+        <v>32000</v>
       </c>
       <c r="P8" t="n">
-        <v>29500</v>
+        <v>31500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1475</v>
+        <v>1575</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44972</v>
+        <v>44650</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1084,32 +1084,32 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="N9" t="n">
-        <v>27000</v>
+        <v>29000</v>
       </c>
       <c r="O9" t="n">
-        <v>28000</v>
+        <v>30000</v>
       </c>
       <c r="P9" t="n">
-        <v>27429</v>
+        <v>29500</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1524</v>
+        <v>1475</v>
       </c>
       <c r="T9" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44664</v>
+        <v>44671</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="N10" t="n">
         <v>29000</v>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1639</v>
+        <v>1475</v>
       </c>
       <c r="T10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45014</v>
+        <v>45021</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="N11" t="n">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="O11" t="n">
-        <v>25000</v>
+        <v>23000</v>
       </c>
       <c r="P11" t="n">
-        <v>24500</v>
+        <v>22500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1225</v>
+        <v>1125</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45028</v>
+        <v>45007</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1324,16 +1324,16 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N12" t="n">
-        <v>21000</v>
+        <v>27000</v>
       </c>
       <c r="O12" t="n">
-        <v>22000</v>
+        <v>28000</v>
       </c>
       <c r="P12" t="n">
-        <v>21500</v>
+        <v>27500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1075</v>
+        <v>1375</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44643</v>
+        <v>44993</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1400,20 +1400,20 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="N13" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="O13" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="P13" t="n">
-        <v>29000</v>
+        <v>25462</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1450</v>
+        <v>1273</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44993</v>
+        <v>44979</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="N14" t="n">
-        <v>25000</v>
+        <v>29000</v>
       </c>
       <c r="O14" t="n">
-        <v>26000</v>
+        <v>30000</v>
       </c>
       <c r="P14" t="n">
-        <v>25462</v>
+        <v>29500</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1273</v>
+        <v>1475</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45007</v>
+        <v>45028</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>27000</v>
+        <v>21000</v>
       </c>
       <c r="O15" t="n">
-        <v>28000</v>
+        <v>22000</v>
       </c>
       <c r="P15" t="n">
-        <v>27500</v>
+        <v>21500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1375</v>
+        <v>1075</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44979</v>
+        <v>44972</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1644,32 +1644,32 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="N16" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="O16" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P16" t="n">
-        <v>29500</v>
+        <v>27429</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1475</v>
+        <v>1524</v>
       </c>
       <c r="T16" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44650</v>
+        <v>44965</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1724,20 +1724,20 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="N17" t="n">
-        <v>31000</v>
+        <v>34000</v>
       </c>
       <c r="O17" t="n">
-        <v>32000</v>
+        <v>35000</v>
       </c>
       <c r="P17" t="n">
-        <v>31500</v>
+        <v>34600</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1575</v>
+        <v>1922</v>
       </c>
       <c r="T17" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44650</v>
+        <v>44965</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1804,20 +1804,20 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="N18" t="n">
-        <v>29000</v>
+        <v>32000</v>
       </c>
       <c r="O18" t="n">
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="P18" t="n">
-        <v>29500</v>
+        <v>32333</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1475</v>
+        <v>1796</v>
       </c>
       <c r="T18" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Agrícola del Norte S.A. de Arica - Tuna.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44679</v>
+        <v>45007</v>
       </c>
       <c r="E2" t="n">
         <v>15</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="N2" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="O2" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P2" t="n">
-        <v>29500</v>
+        <v>27500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1475</v>
+        <v>1375</v>
       </c>
       <c r="T2" t="n">
         <v>20</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44679</v>
+        <v>44636</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
         <v>200</v>
       </c>
       <c r="N3" t="n">
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="O3" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="P3" t="n">
-        <v>24500</v>
+        <v>29500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1225</v>
+        <v>1475</v>
       </c>
       <c r="T3" t="n">
         <v>20</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44636</v>
+        <v>45014</v>
       </c>
       <c r="E4" t="n">
         <v>15</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M4" t="n">
         <v>200</v>
       </c>
       <c r="N4" t="n">
-        <v>29000</v>
+        <v>24000</v>
       </c>
       <c r="O4" t="n">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="P4" t="n">
-        <v>29500</v>
+        <v>24500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1475</v>
+        <v>1225</v>
       </c>
       <c r="T4" t="n">
         <v>20</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44664</v>
+        <v>44965</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
@@ -840,20 +840,20 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="O6" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="P6" t="n">
-        <v>29500</v>
+        <v>34600</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1639</v>
+        <v>1922</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45014</v>
+        <v>44965</v>
       </c>
       <c r="E7" t="n">
         <v>15</v>
@@ -924,20 +924,20 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="N7" t="n">
-        <v>24000</v>
+        <v>32000</v>
       </c>
       <c r="O7" t="n">
-        <v>25000</v>
+        <v>33000</v>
       </c>
       <c r="P7" t="n">
-        <v>24500</v>
+        <v>32333</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1225</v>
+        <v>1796</v>
       </c>
       <c r="T7" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44650</v>
+        <v>45028</v>
       </c>
       <c r="E8" t="n">
         <v>15</v>
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N8" t="n">
-        <v>31000</v>
+        <v>21000</v>
       </c>
       <c r="O8" t="n">
-        <v>32000</v>
+        <v>22000</v>
       </c>
       <c r="P8" t="n">
-        <v>31500</v>
+        <v>21500</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1575</v>
+        <v>1075</v>
       </c>
       <c r="T8" t="n">
         <v>20</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44650</v>
+        <v>44972</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
@@ -1084,32 +1084,32 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="N9" t="n">
-        <v>29000</v>
+        <v>27000</v>
       </c>
       <c r="O9" t="n">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="P9" t="n">
-        <v>29500</v>
+        <v>27429</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región de Coquimbo</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1475</v>
+        <v>1524</v>
       </c>
       <c r="T9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44671</v>
+        <v>44664</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="N10" t="n">
         <v>29000</v>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>$/caja 20 kilos</t>
+          <t>$/caja 18 kilos</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1186,10 +1186,10 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1475</v>
+        <v>1639</v>
       </c>
       <c r="T10" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45021</v>
+        <v>44679</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
@@ -1244,16 +1244,16 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="N11" t="n">
-        <v>22000</v>
+        <v>29000</v>
       </c>
       <c r="O11" t="n">
-        <v>23000</v>
+        <v>30000</v>
       </c>
       <c r="P11" t="n">
-        <v>22500</v>
+        <v>29500</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1125</v>
+        <v>1475</v>
       </c>
       <c r="T11" t="n">
         <v>20</v>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45007</v>
+        <v>44679</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
@@ -1320,20 +1320,20 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="N12" t="n">
-        <v>27000</v>
+        <v>24000</v>
       </c>
       <c r="O12" t="n">
-        <v>28000</v>
+        <v>25000</v>
       </c>
       <c r="P12" t="n">
-        <v>27500</v>
+        <v>24500</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>1375</v>
+        <v>1225</v>
       </c>
       <c r="T12" t="n">
         <v>20</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44993</v>
+        <v>45021</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
@@ -1404,16 +1404,16 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="N13" t="n">
-        <v>25000</v>
+        <v>22000</v>
       </c>
       <c r="O13" t="n">
-        <v>26000</v>
+        <v>23000</v>
       </c>
       <c r="P13" t="n">
-        <v>25462</v>
+        <v>22500</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1273</v>
+        <v>1125</v>
       </c>
       <c r="T13" t="n">
         <v>20</v>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44979</v>
+        <v>44993</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -1484,16 +1484,16 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="N14" t="n">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="O14" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="P14" t="n">
-        <v>29500</v>
+        <v>25462</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1475</v>
+        <v>1273</v>
       </c>
       <c r="T14" t="n">
         <v>20</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45028</v>
+        <v>44671</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
@@ -1567,13 +1567,13 @@
         <v>200</v>
       </c>
       <c r="N15" t="n">
-        <v>21000</v>
+        <v>29000</v>
       </c>
       <c r="O15" t="n">
-        <v>22000</v>
+        <v>30000</v>
       </c>
       <c r="P15" t="n">
-        <v>21500</v>
+        <v>29500</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1075</v>
+        <v>1475</v>
       </c>
       <c r="T15" t="n">
         <v>20</v>
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44972</v>
+        <v>44650</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -1640,36 +1640,36 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="N16" t="n">
-        <v>27000</v>
+        <v>31000</v>
       </c>
       <c r="O16" t="n">
-        <v>28000</v>
+        <v>32000</v>
       </c>
       <c r="P16" t="n">
-        <v>27429</v>
+        <v>31500</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Región de Coquimbo</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1524</v>
+        <v>1575</v>
       </c>
       <c r="T16" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44965</v>
+        <v>44650</v>
       </c>
       <c r="E17" t="n">
         <v>15</v>
@@ -1720,24 +1720,24 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N17" t="n">
-        <v>34000</v>
+        <v>29000</v>
       </c>
       <c r="O17" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="P17" t="n">
-        <v>34600</v>
+        <v>29500</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1922</v>
+        <v>1475</v>
       </c>
       <c r="T17" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44965</v>
+        <v>44979</v>
       </c>
       <c r="E18" t="n">
         <v>15</v>
@@ -1804,20 +1804,20 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="N18" t="n">
-        <v>32000</v>
+        <v>29000</v>
       </c>
       <c r="O18" t="n">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="P18" t="n">
-        <v>32333</v>
+        <v>29500</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>$/caja 18 kilos</t>
+          <t>$/caja 20 kilos</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="S18" t="n">
-        <v>1796</v>
+        <v>1475</v>
       </c>
       <c r="T18" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
